--- a/交易紀錄/合併財務報表.xlsx
+++ b/交易紀錄/合併財務報表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="135" windowWidth="19395" windowHeight="7620"/>
+    <workbookView xWindow="600" yWindow="135" windowWidth="19395" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="合併報表" sheetId="1" r:id="rId1"/>
@@ -324,7 +324,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[2]股票獲利曲線!$A$2:$A$8</c:f>
+              <c:f>[1]股票獲利曲線!$A$2:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -401,7 +401,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[2]股票獲利曲線!$A$2:$A$8</c:f>
+              <c:f>[1]股票獲利曲線!$A$2:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -478,7 +478,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[2]股票獲利曲線!$A$2:$A$8</c:f>
+              <c:f>[1]股票獲利曲線!$A$2:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -531,24 +531,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="106088320"/>
-        <c:axId val="106089856"/>
+        <c:axId val="121237888"/>
+        <c:axId val="121239424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="106088320"/>
+        <c:axId val="121237888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106089856"/>
+        <c:crossAx val="121239424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106089856"/>
+        <c:axId val="121239424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -556,7 +556,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106088320"/>
+        <c:crossAx val="121237888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -588,7 +588,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]財務報表!$B$1</c:f>
+              <c:f>[2]財務報表!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -602,7 +602,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[1]財務報表!$A$2:$A$7</c:f>
+              <c:f>[2]財務報表!$A$2:$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -628,7 +628,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]財務報表!$B$2:$B$7</c:f>
+              <c:f>[2]財務報表!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -656,7 +656,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]財務報表!$G$1</c:f>
+              <c:f>[2]財務報表!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -670,7 +670,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[1]財務報表!$A$2:$A$7</c:f>
+              <c:f>[2]財務報表!$A$2:$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -696,7 +696,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]財務報表!$G$2:$G$7</c:f>
+              <c:f>[2]財務報表!$G$2:$G$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -727,7 +727,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]財務報表!$C$1</c:f>
+              <c:f>[2]財務報表!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -741,7 +741,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[1]財務報表!$A$2:$A$7</c:f>
+              <c:f>[2]財務報表!$A$2:$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -767,7 +767,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]財務報表!$C$2:$C$7</c:f>
+              <c:f>[2]財務報表!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -791,24 +791,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="59980416"/>
-        <c:axId val="59994496"/>
+        <c:axId val="138750976"/>
+        <c:axId val="138752768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="59980416"/>
+        <c:axId val="138750976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59994496"/>
+        <c:crossAx val="138752768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59994496"/>
+        <c:axId val="138752768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -816,7 +816,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59980416"/>
+        <c:crossAx val="138750976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -848,7 +848,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[2]股票獲利曲線!$B$1</c:f>
+              <c:f>[1]股票獲利曲線!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -862,7 +862,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[2]股票獲利曲線!$A$2:$A$8</c:f>
+              <c:f>[1]股票獲利曲線!$A$2:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -891,7 +891,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[2]股票獲利曲線!$B$2:$B$8</c:f>
+              <c:f>[1]股票獲利曲線!$B$2:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -922,7 +922,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>[2]股票獲利曲線!$D$1</c:f>
+              <c:f>[1]股票獲利曲線!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -936,7 +936,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[2]股票獲利曲線!$A$2:$A$8</c:f>
+              <c:f>[1]股票獲利曲線!$A$2:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -965,7 +965,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[2]股票獲利曲線!$D$2:$D$8</c:f>
+              <c:f>[1]股票獲利曲線!$D$2:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -999,7 +999,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>[2]股票獲利曲線!$C$1</c:f>
+              <c:f>[1]股票獲利曲線!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1013,7 +1013,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[2]股票獲利曲線!$A$2:$A$8</c:f>
+              <c:f>[1]股票獲利曲線!$A$2:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -1042,7 +1042,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[2]股票獲利曲線!$C$2:$C$8</c:f>
+              <c:f>[1]股票獲利曲線!$C$2:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1063,24 +1063,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="55911936"/>
-        <c:axId val="55913472"/>
+        <c:axId val="138811264"/>
+        <c:axId val="138812800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="55911936"/>
+        <c:axId val="138811264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55913472"/>
+        <c:crossAx val="138812800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="55913472"/>
+        <c:axId val="138812800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1088,7 +1088,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55911936"/>
+        <c:crossAx val="138811264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1216,6 +1216,127 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="老婆合資(投資)"/>
+      <sheetName val="股票獲利曲線"/>
+      <sheetName val="股份統計"/>
+      <sheetName val="公司資金"/>
+      <sheetName val="專案收入"/>
+      <sheetName val="福利金"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>結算損益</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>現金股利</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>累計盈餘</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>2010</v>
+          </cell>
+          <cell r="B2">
+            <v>29983</v>
+          </cell>
+          <cell r="D2">
+            <v>29983</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>2011</v>
+          </cell>
+          <cell r="B3">
+            <v>20086</v>
+          </cell>
+          <cell r="D3">
+            <v>50069</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>2012</v>
+          </cell>
+          <cell r="B4">
+            <v>-17592</v>
+          </cell>
+          <cell r="D4">
+            <v>32477</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>2013</v>
+          </cell>
+          <cell r="B5">
+            <v>37434</v>
+          </cell>
+          <cell r="C5">
+            <v>9561</v>
+          </cell>
+          <cell r="D5">
+            <v>69911</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>2014</v>
+          </cell>
+          <cell r="B6">
+            <v>327767</v>
+          </cell>
+          <cell r="C6">
+            <v>78922</v>
+          </cell>
+          <cell r="D6">
+            <v>397678</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>2015</v>
+          </cell>
+          <cell r="B7">
+            <v>1892186</v>
+          </cell>
+          <cell r="C7">
+            <v>313669</v>
+          </cell>
+          <cell r="D7">
+            <v>2289864</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>2016</v>
+          </cell>
+          <cell r="C8">
+            <v>411500</v>
+          </cell>
+          <cell r="D8">
+            <v>2289864</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
       <sheetName val="銀行帳目"/>
       <sheetName val="交屋後明細"/>
       <sheetName val="交屋前支出"/>
@@ -1318,127 +1439,6 @@
           </cell>
         </row>
       </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="老婆合資(投資)"/>
-      <sheetName val="股票獲利曲線"/>
-      <sheetName val="股份統計"/>
-      <sheetName val="公司資金"/>
-      <sheetName val="專案收入"/>
-      <sheetName val="福利金"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>結算損益</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>現金股利</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>累計盈餘</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>2010</v>
-          </cell>
-          <cell r="B2">
-            <v>29983</v>
-          </cell>
-          <cell r="D2">
-            <v>29983</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>2011</v>
-          </cell>
-          <cell r="B3">
-            <v>20086</v>
-          </cell>
-          <cell r="D3">
-            <v>50069</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>2012</v>
-          </cell>
-          <cell r="B4">
-            <v>-17592</v>
-          </cell>
-          <cell r="D4">
-            <v>32477</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>2013</v>
-          </cell>
-          <cell r="B5">
-            <v>37434</v>
-          </cell>
-          <cell r="C5">
-            <v>9561</v>
-          </cell>
-          <cell r="D5">
-            <v>69911</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>2014</v>
-          </cell>
-          <cell r="B6">
-            <v>327767</v>
-          </cell>
-          <cell r="C6">
-            <v>78922</v>
-          </cell>
-          <cell r="D6">
-            <v>397678</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>2015</v>
-          </cell>
-          <cell r="B7">
-            <v>1892186</v>
-          </cell>
-          <cell r="C7">
-            <v>313669</v>
-          </cell>
-          <cell r="D7">
-            <v>2289864</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>2016</v>
-          </cell>
-          <cell r="C8">
-            <v>411500</v>
-          </cell>
-          <cell r="D8">
-            <v>2289864</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1731,8 +1731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1942,11 +1942,11 @@
         <v>177608</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E3:E6" si="7">E3+G3+M3</f>
+        <f t="shared" ref="E4:E6" si="7">E3+G3+M3</f>
         <v>2112798</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F3:F7" si="8">F3+B3+G3+H3-L3</f>
+        <f t="shared" ref="F4:F7" si="8">F3+B3+G3+H3-L3</f>
         <v>2156867</v>
       </c>
       <c r="G4">
@@ -1962,7 +1962,7 @@
         <v>66.728719297560929</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K3:K8" si="9">K3+B4-L4-M4</f>
+        <f t="shared" ref="K4:K8" si="9">K3+B4-L4-M4</f>
         <v>171608</v>
       </c>
       <c r="L4">
@@ -2271,8 +2271,8 @@
         <v>13.810575438993155</v>
       </c>
       <c r="R8" s="3">
-        <f>((F8+B8-L8+K13-K16+K19)/(E8))*10</f>
-        <v>16.023542698976687</v>
+        <f>((F8+B8-L8+K13-K16)/(E8))*10</f>
+        <v>15.736204833830115</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2401,8 +2401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView topLeftCell="D2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2911,8 +2911,8 @@
         <v>11.588772574836208</v>
       </c>
       <c r="U7" s="3">
-        <f>((I7+B7-O7+N12-N15+N18)/(H7))*10</f>
-        <v>19.128335540378664</v>
+        <f>((I7+B7-O7+N12-N15)/(H7))*10</f>
+        <v>18.498127367441064</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -3135,8 +3135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3638,7 +3638,7 @@
         <v>15.672527545246997</v>
       </c>
       <c r="R8" s="3">
-        <f>((F8+B8-L8+K13-K16+K19)/(E8))*10</f>
+        <f>((F8+B8-L8+K13-K16)/(E8))*10</f>
         <v>13.421612679085463</v>
       </c>
     </row>

--- a/交易紀錄/合併財務報表.xlsx
+++ b/交易紀錄/合併財務報表.xlsx
@@ -373,7 +373,7 @@
                   <c:v>353370</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1994975</c:v>
+                  <c:v>1995109</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -450,10 +450,10 @@
                   <c:v>697293</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2692268</c:v>
+                  <c:v>2692402</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2692268</c:v>
+                  <c:v>2692402</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -531,24 +531,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="121237888"/>
-        <c:axId val="121239424"/>
+        <c:axId val="152502656"/>
+        <c:axId val="152504192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="121237888"/>
+        <c:axId val="152502656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121239424"/>
+        <c:crossAx val="152504192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121239424"/>
+        <c:axId val="152504192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -556,14 +556,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121237888"/>
+        <c:crossAx val="152502656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -791,24 +790,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="138750976"/>
-        <c:axId val="138752768"/>
+        <c:axId val="152587264"/>
+        <c:axId val="152589056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="138750976"/>
+        <c:axId val="152587264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138752768"/>
+        <c:crossAx val="152589056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138752768"/>
+        <c:axId val="152589056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -816,14 +815,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138750976"/>
+        <c:crossAx val="152587264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -911,7 +909,7 @@
                   <c:v>327767</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1892186</c:v>
+                  <c:v>1892320</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -985,10 +983,10 @@
                   <c:v>397678</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2289864</c:v>
+                  <c:v>2289998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2289864</c:v>
+                  <c:v>2289998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1063,24 +1061,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="138811264"/>
-        <c:axId val="138812800"/>
+        <c:axId val="152647552"/>
+        <c:axId val="152649088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="138811264"/>
+        <c:axId val="152647552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138812800"/>
+        <c:crossAx val="152649088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138812800"/>
+        <c:axId val="152649088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1088,7 +1086,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138811264"/>
+        <c:crossAx val="152647552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1224,7 +1222,7 @@
       <sheetName val="福利金"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="B1" t="str">
@@ -1303,13 +1301,13 @@
             <v>2015</v>
           </cell>
           <cell r="B7">
-            <v>1892186</v>
+            <v>1892320</v>
           </cell>
           <cell r="C7">
             <v>313669</v>
           </cell>
           <cell r="D7">
-            <v>2289864</v>
+            <v>2289998</v>
           </cell>
         </row>
         <row r="8">
@@ -1320,14 +1318,14 @@
             <v>411500</v>
           </cell>
           <cell r="D8">
-            <v>2289864</v>
+            <v>2289998</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1342,12 +1340,13 @@
       <sheetName val="交屋前支出"/>
       <sheetName val="借款"/>
       <sheetName val="財務報表"/>
+      <sheetName val="股份統計"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
       <sheetData sheetId="4">
         <row r="1">
           <cell r="B1" t="str">
@@ -1439,6 +1438,7 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="5"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="B7">
         <f>'達人351-15'!B6+股票期貨外匯!B7</f>
-        <v>1994975</v>
+        <v>1995109</v>
       </c>
       <c r="C7">
         <f>'達人351-15'!C6+股票期貨外匯!C7</f>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="D7">
         <f t="shared" si="2"/>
-        <v>2692268</v>
+        <v>2692402</v>
       </c>
       <c r="E7">
         <f>E6+G6+M6</f>
@@ -2172,7 +2172,7 @@
       </c>
       <c r="K7">
         <f t="shared" si="9"/>
-        <v>2040312</v>
+        <v>2040446</v>
       </c>
       <c r="L7">
         <f>'達人351-15'!O6+股票期貨外匯!L7</f>
@@ -2184,15 +2184,15 @@
       </c>
       <c r="N7">
         <f t="shared" si="3"/>
-        <v>40.564011523983595</v>
+        <v>40.566736158399678</v>
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>15.700897228981214</v>
+        <v>15.70195183880273</v>
       </c>
       <c r="P7">
         <f t="shared" si="4"/>
-        <v>4.6080796470929002</v>
+        <v>4.6083891660957503</v>
       </c>
       <c r="Q7">
         <f t="shared" si="5"/>
@@ -2200,7 +2200,7 @@
       </c>
       <c r="R7">
         <f>((F7+B7-L7)/(E7))*10</f>
-        <v>15.684783075685711</v>
+        <v>15.685092594688561</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2217,7 +2217,7 @@
       </c>
       <c r="D8">
         <f t="shared" si="2"/>
-        <v>2692268</v>
+        <v>2692402</v>
       </c>
       <c r="E8">
         <f>E7+G7+M7</f>
@@ -2225,7 +2225,7 @@
       </c>
       <c r="F8">
         <f>F7+B7+G7+H7-L7</f>
-        <v>7671910</v>
+        <v>7672044</v>
       </c>
       <c r="G8">
         <f>'達人351-15'!J7+股票期貨外匯!G8</f>
@@ -2240,11 +2240,11 @@
       </c>
       <c r="J8">
         <f t="shared" si="0"/>
-        <v>50.156891988483977</v>
+        <v>50.156455338698983</v>
       </c>
       <c r="K8">
         <f t="shared" si="9"/>
-        <v>2040312</v>
+        <v>2040446</v>
       </c>
       <c r="L8">
         <f>'達人351-15'!O7+股票期貨外匯!L8</f>
@@ -2268,11 +2268,11 @@
       </c>
       <c r="Q8">
         <f>(F8/E8)*10</f>
-        <v>13.810575438993155</v>
+        <v>13.810816658860023</v>
       </c>
       <c r="R8" s="3">
         <f>((F8+B8-L8+K13-K16)/(E8))*10</f>
-        <v>15.736204833830115</v>
+        <v>15.736446053696982</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2341,7 +2341,7 @@
     <row r="22" spans="11:13">
       <c r="M22">
         <f>((F8+B8+M13-((E8/10)*M16))/M19)*10</f>
-        <v>13.320438368163126</v>
+        <v>13.320648561010355</v>
       </c>
     </row>
     <row r="24" spans="11:13">
@@ -2359,7 +2359,7 @@
       </c>
       <c r="M25">
         <f>K28/(F8+B8+K13+M13-K16+K22+K28)*100</f>
-        <v>41.420209552773549</v>
+        <v>41.419869512747852</v>
       </c>
     </row>
     <row r="27" spans="11:13">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="M28">
         <f>(K28+K31)/(F8+B8+K13+M13-K16+K22+K28+K31)*100</f>
-        <v>43.161336267519815</v>
+        <v>43.160992465216552</v>
       </c>
     </row>
     <row r="30" spans="11:13">
@@ -3136,7 +3136,7 @@
   <dimension ref="A1:R31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3521,14 +3521,14 @@
         <v>25</v>
       </c>
       <c r="B7">
-        <v>1892186</v>
+        <v>1892320</v>
       </c>
       <c r="C7">
         <v>313669</v>
       </c>
       <c r="D7">
         <f t="shared" si="2"/>
-        <v>2289864</v>
+        <v>2289998</v>
       </c>
       <c r="E7">
         <f>E6+G6+M6</f>
@@ -3553,7 +3553,7 @@
       </c>
       <c r="K7">
         <f t="shared" si="5"/>
-        <v>1637908</v>
+        <v>1638042</v>
       </c>
       <c r="L7">
         <v>122656</v>
@@ -3563,15 +3563,15 @@
       </c>
       <c r="N7">
         <f t="shared" si="6"/>
-        <v>85.78704597860613</v>
+        <v>85.793121208082042</v>
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>30.283717092101465</v>
+        <v>30.285861711124301</v>
       </c>
       <c r="P7">
         <f t="shared" si="7"/>
-        <v>9.8731333159405175</v>
+        <v>9.8738325071745372</v>
       </c>
       <c r="Q7">
         <f t="shared" si="8"/>
@@ -3579,7 +3579,7 @@
       </c>
       <c r="R7">
         <f>((F7+B7-L7)/(E7))*10</f>
-        <v>20.742019306026613</v>
+        <v>20.742718497260633</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -3591,7 +3591,7 @@
       </c>
       <c r="D8">
         <f t="shared" si="2"/>
-        <v>2289864</v>
+        <v>2289998</v>
       </c>
       <c r="E8">
         <f>E7+G7+M7</f>
@@ -3599,7 +3599,7 @@
       </c>
       <c r="F8">
         <f>F7+B7+G7+H7-L7</f>
-        <v>4736708</v>
+        <v>4736842</v>
       </c>
       <c r="H8">
         <v>39000</v>
@@ -3609,11 +3609,11 @@
       </c>
       <c r="J8">
         <f t="shared" si="0"/>
-        <v>45.626353685353131</v>
+        <v>45.625651865376696</v>
       </c>
       <c r="K8">
         <f t="shared" si="5"/>
-        <v>1637908</v>
+        <v>1638042</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -3635,11 +3635,11 @@
       </c>
       <c r="Q8">
         <f>(F8/E8)*10</f>
-        <v>15.672527545246997</v>
+        <v>15.672970916189657</v>
       </c>
       <c r="R8" s="3">
         <f>((F8+B8-L8+K13-K16)/(E8))*10</f>
-        <v>13.421612679085463</v>
+        <v>13.422056050028123</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -3801,7 +3801,7 @@
     <row r="22" spans="11:18">
       <c r="M22">
         <f>((F8+B8+M13-((E8/10)*M16))/M19)*10</f>
-        <v>14.605775998710476</v>
+        <v>14.606135991188244</v>
       </c>
     </row>
     <row r="24" spans="11:18">
@@ -3819,7 +3819,7 @@
       </c>
       <c r="M25">
         <f>K28/(F8+B8+K13+M13-K16+K22+K28)*100</f>
-        <v>40.333501177796464</v>
+        <v>40.332823201786297</v>
       </c>
     </row>
     <row r="27" spans="11:18">
@@ -3836,7 +3836,7 @@
       </c>
       <c r="M28">
         <f>(K28+K31)/(F8+B8+K13+M13-K16+K22+K28+K31)*100</f>
-        <v>43.855033944917096</v>
+        <v>43.85434028187634</v>
       </c>
     </row>
     <row r="30" spans="11:18">

--- a/交易紀錄/合併財務報表.xlsx
+++ b/交易紀錄/合併財務報表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="135" windowWidth="19395" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="600" yWindow="135" windowWidth="19395" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="合併報表" sheetId="1" r:id="rId1"/>
@@ -376,7 +376,7 @@
                   <c:v>1995109</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2611</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -453,7 +453,7 @@
                   <c:v>2692402</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2692402</c:v>
+                  <c:v>2695013</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -531,24 +531,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="152502656"/>
-        <c:axId val="152504192"/>
+        <c:axId val="129712512"/>
+        <c:axId val="129714048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="152502656"/>
+        <c:axId val="129712512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152504192"/>
+        <c:crossAx val="129714048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="152504192"/>
+        <c:axId val="129714048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -556,13 +556,14 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152502656"/>
+        <c:crossAx val="129712512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -790,24 +791,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="152587264"/>
-        <c:axId val="152589056"/>
+        <c:axId val="140610560"/>
+        <c:axId val="140616448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="152587264"/>
+        <c:axId val="140610560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152589056"/>
+        <c:crossAx val="140616448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="152589056"/>
+        <c:axId val="140616448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -815,7 +816,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152587264"/>
+        <c:crossAx val="140610560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -911,6 +912,9 @@
                 <c:pt idx="5">
                   <c:v>1892320</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>2611</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -986,7 +990,7 @@
                   <c:v>2289998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2289998</c:v>
+                  <c:v>2292609</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1061,24 +1065,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="152647552"/>
-        <c:axId val="152649088"/>
+        <c:axId val="140670848"/>
+        <c:axId val="140672384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="152647552"/>
+        <c:axId val="140670848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152649088"/>
+        <c:crossAx val="140672384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="152649088"/>
+        <c:axId val="140672384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1086,7 +1090,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152647552"/>
+        <c:crossAx val="140670848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1314,11 +1318,14 @@
           <cell r="A8" t="str">
             <v>2016</v>
           </cell>
+          <cell r="B8">
+            <v>2611</v>
+          </cell>
           <cell r="C8">
             <v>411500</v>
           </cell>
           <cell r="D8">
-            <v>2289998</v>
+            <v>2292609</v>
           </cell>
         </row>
       </sheetData>
@@ -1731,8 +1738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2209,7 +2216,7 @@
       </c>
       <c r="B8">
         <f>'達人351-15'!B7+股票期貨外匯!B8</f>
-        <v>0</v>
+        <v>2611</v>
       </c>
       <c r="C8">
         <f>'達人351-15'!C7+股票期貨外匯!C8</f>
@@ -2217,7 +2224,7 @@
       </c>
       <c r="D8">
         <f t="shared" si="2"/>
-        <v>2692402</v>
+        <v>2695013</v>
       </c>
       <c r="E8">
         <f>E7+G7+M7</f>
@@ -2244,7 +2251,7 @@
       </c>
       <c r="K8">
         <f t="shared" si="9"/>
-        <v>2040446</v>
+        <v>2043057</v>
       </c>
       <c r="L8">
         <f>'達人351-15'!O7+股票期貨外匯!L8</f>
@@ -2256,15 +2263,15 @@
       </c>
       <c r="N8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3.4032651533281097E-2</v>
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.6963079866415907E-2</v>
       </c>
       <c r="P8">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4.7001871074101656E-3</v>
       </c>
       <c r="Q8">
         <f>(F8/E8)*10</f>
@@ -2272,7 +2279,7 @@
       </c>
       <c r="R8" s="3">
         <f>((F8+B8-L8+K13-K16)/(E8))*10</f>
-        <v>15.736446053696982</v>
+        <v>15.741146240804394</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2341,7 +2348,7 @@
     <row r="22" spans="11:13">
       <c r="M22">
         <f>((F8+B8+M13-((E8/10)*M16))/M19)*10</f>
-        <v>13.320648561010355</v>
+        <v>13.324744184324695</v>
       </c>
     </row>
     <row r="24" spans="11:13">
@@ -2359,7 +2366,7 @@
       </c>
       <c r="M25">
         <f>K28/(F8+B8+K13+M13-K16+K22+K28)*100</f>
-        <v>41.419869512747852</v>
+        <v>41.413244921554963</v>
       </c>
     </row>
     <row r="27" spans="11:13">
@@ -2377,7 +2384,7 @@
       </c>
       <c r="M28">
         <f>(K28+K31)/(F8+B8+K13+M13-K16+K22+K28+K31)*100</f>
-        <v>43.160992465216552</v>
+        <v>43.154294544617059</v>
       </c>
     </row>
     <row r="30" spans="11:13">
@@ -3135,8 +3142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3586,12 +3593,15 @@
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="B8">
+        <v>2611</v>
+      </c>
       <c r="C8">
         <v>411500</v>
       </c>
       <c r="D8">
         <f t="shared" si="2"/>
-        <v>2289998</v>
+        <v>2292609</v>
       </c>
       <c r="E8">
         <f>E7+G7+M7</f>
@@ -3613,7 +3623,7 @@
       </c>
       <c r="K8">
         <f t="shared" si="5"/>
-        <v>1638042</v>
+        <v>1640653</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -3623,15 +3633,15 @@
       </c>
       <c r="N8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5.5121112336024715E-2</v>
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.9971745517266873E-2</v>
       </c>
       <c r="P8">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>8.639115905105384E-3</v>
       </c>
       <c r="Q8">
         <f>(F8/E8)*10</f>
@@ -3639,7 +3649,7 @@
       </c>
       <c r="R8" s="3">
         <f>((F8+B8-L8+K13-K16)/(E8))*10</f>
-        <v>13.422056050028123</v>
+        <v>13.43069516593323</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -3801,7 +3811,7 @@
     <row r="22" spans="11:18">
       <c r="M22">
         <f>((F8+B8+M13-((E8/10)*M16))/M19)*10</f>
-        <v>14.606135991188244</v>
+        <v>14.613150471482685</v>
       </c>
     </row>
     <row r="24" spans="11:18">
@@ -3819,7 +3829,7 @@
       </c>
       <c r="M25">
         <f>K28/(F8+B8+K13+M13-K16+K22+K28)*100</f>
-        <v>40.332823201786297</v>
+        <v>40.319617336001365</v>
       </c>
     </row>
     <row r="27" spans="11:18">
@@ -3836,7 +3846,7 @@
       </c>
       <c r="M28">
         <f>(K28+K31)/(F8+B8+K13+M13-K16+K22+K28+K31)*100</f>
-        <v>43.85434028187634</v>
+        <v>43.840828583839041</v>
       </c>
     </row>
     <row r="30" spans="11:18">

--- a/交易紀錄/合併財務報表.xlsx
+++ b/交易紀錄/合併財務報表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="135" windowWidth="19395" windowHeight="7620"/>
+    <workbookView xWindow="600" yWindow="135" windowWidth="19395" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="合併報表" sheetId="1" r:id="rId1"/>
@@ -376,7 +376,7 @@
                   <c:v>1995109</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2611</c:v>
+                  <c:v>26103</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -453,7 +453,7 @@
                   <c:v>2692402</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2695013</c:v>
+                  <c:v>2718505</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -524,31 +524,31 @@
                   <c:v>538729</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>411500</c:v>
+                  <c:v>443900</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="129712512"/>
-        <c:axId val="129714048"/>
+        <c:axId val="62180736"/>
+        <c:axId val="135701632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="129712512"/>
+        <c:axId val="62180736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129714048"/>
+        <c:crossAx val="135701632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="129714048"/>
+        <c:axId val="135701632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -556,7 +556,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129712512"/>
+        <c:crossAx val="62180736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -645,7 +645,7 @@
                   <c:v>102789</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>23029</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -716,7 +716,7 @@
                   <c:v>402404</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>402404</c:v>
+                  <c:v>425433</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -784,31 +784,31 @@
                   <c:v>225060</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>32400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="140610560"/>
-        <c:axId val="140616448"/>
+        <c:axId val="137156864"/>
+        <c:axId val="137297920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="140610560"/>
+        <c:axId val="137156864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140616448"/>
+        <c:crossAx val="137297920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140616448"/>
+        <c:axId val="137297920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -816,13 +816,14 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140610560"/>
+        <c:crossAx val="137156864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -913,7 +914,7 @@
                   <c:v>1892320</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2611</c:v>
+                  <c:v>3074</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -990,7 +991,7 @@
                   <c:v>2289998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2292609</c:v>
+                  <c:v>2293072</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1065,24 +1066,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="140670848"/>
-        <c:axId val="140672384"/>
+        <c:axId val="137340032"/>
+        <c:axId val="137341568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="140670848"/>
+        <c:axId val="137340032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140672384"/>
+        <c:crossAx val="137341568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140672384"/>
+        <c:axId val="137341568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1090,7 +1091,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140670848"/>
+        <c:crossAx val="137340032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1319,13 +1320,13 @@
             <v>2016</v>
           </cell>
           <cell r="B8">
-            <v>2611</v>
+            <v>3074</v>
           </cell>
           <cell r="C8">
             <v>411500</v>
           </cell>
           <cell r="D8">
-            <v>2292609</v>
+            <v>2293072</v>
           </cell>
         </row>
       </sheetData>
@@ -1344,6 +1345,7 @@
     <sheetNames>
       <sheetName val="銀行帳目"/>
       <sheetName val="交屋後明細"/>
+      <sheetName val="3號水電"/>
       <sheetName val="交屋前支出"/>
       <sheetName val="借款"/>
       <sheetName val="財務報表"/>
@@ -1354,7 +1356,8 @@
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
-      <sheetData sheetId="4">
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5">
         <row r="1">
           <cell r="B1" t="str">
             <v>結算損益</v>
@@ -1435,17 +1438,17 @@
             <v>2016</v>
           </cell>
           <cell r="B7">
-            <v>0</v>
+            <v>23029</v>
           </cell>
           <cell r="C7">
-            <v>0</v>
+            <v>32400</v>
           </cell>
           <cell r="G7">
-            <v>402404</v>
+            <v>425433</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1738,8 +1741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2216,15 +2219,15 @@
       </c>
       <c r="B8">
         <f>'達人351-15'!B7+股票期貨外匯!B8</f>
-        <v>2611</v>
+        <v>26103</v>
       </c>
       <c r="C8">
         <f>'達人351-15'!C7+股票期貨外匯!C8</f>
-        <v>411500</v>
+        <v>443900</v>
       </c>
       <c r="D8">
         <f t="shared" si="2"/>
-        <v>2695013</v>
+        <v>2718505</v>
       </c>
       <c r="E8">
         <f>E7+G7+M7</f>
@@ -2243,15 +2246,15 @@
       </c>
       <c r="I8">
         <f>'達人351-15'!L7+股票期貨外匯!I8</f>
-        <v>7720208</v>
+        <v>7703585</v>
       </c>
       <c r="J8">
         <f t="shared" si="0"/>
-        <v>50.156455338698983</v>
+        <v>50.10256816160171</v>
       </c>
       <c r="K8">
         <f t="shared" si="9"/>
-        <v>2043057</v>
+        <v>2066549</v>
       </c>
       <c r="L8">
         <f>'達人351-15'!O7+股票期貨外匯!L8</f>
@@ -2263,15 +2266,15 @@
       </c>
       <c r="N8">
         <f t="shared" si="3"/>
-        <v>3.4032651533281097E-2</v>
+        <v>0.34023527498017475</v>
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>1.6963079866415907E-2</v>
+        <v>0.1697686644234197</v>
       </c>
       <c r="P8">
         <f t="shared" si="4"/>
-        <v>4.7001871074101656E-3</v>
+        <v>4.6989270036280194E-2</v>
       </c>
       <c r="Q8">
         <f>(F8/E8)*10</f>
@@ -2279,7 +2282,7 @@
       </c>
       <c r="R8" s="3">
         <f>((F8+B8-L8+K13-K16)/(E8))*10</f>
-        <v>15.741146240804394</v>
+        <v>15.783435323733263</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2330,7 +2333,7 @@
     <row r="19" spans="11:13">
       <c r="K19">
         <f>'達人351-15'!N18+股票期貨外匯!K19</f>
-        <v>159619</v>
+        <v>1311580</v>
       </c>
       <c r="M19">
         <f>E8+M13+((E8/10)*N16)</f>
@@ -2348,7 +2351,7 @@
     <row r="22" spans="11:13">
       <c r="M22">
         <f>((F8+B8+M13-((E8/10)*M16))/M19)*10</f>
-        <v>13.324744184324695</v>
+        <v>13.361593813930391</v>
       </c>
     </row>
     <row r="24" spans="11:13">
@@ -2366,7 +2369,7 @@
       </c>
       <c r="M25">
         <f>K28/(F8+B8+K13+M13-K16+K22+K28)*100</f>
-        <v>41.413244921554963</v>
+        <v>41.353736527071369</v>
       </c>
     </row>
     <row r="27" spans="11:13">
@@ -2384,7 +2387,7 @@
       </c>
       <c r="M28">
         <f>(K28+K31)/(F8+B8+K13+M13-K16+K22+K28+K31)*100</f>
-        <v>43.154294544617059</v>
+        <v>43.094124580076809</v>
       </c>
     </row>
     <row r="30" spans="11:13">
@@ -2408,8 +2411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView topLeftCell="D2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2869,11 +2872,23 @@
       </c>
       <c r="B7">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>23029</v>
+      </c>
+      <c r="C7">
+        <v>32400</v>
+      </c>
+      <c r="D7">
+        <v>29030</v>
+      </c>
+      <c r="E7">
+        <v>6001</v>
+      </c>
+      <c r="F7">
+        <v>22624</v>
       </c>
       <c r="G7">
         <f t="shared" si="6"/>
-        <v>402404</v>
+        <v>425433</v>
       </c>
       <c r="H7">
         <f>H6+J6+P6</f>
@@ -2885,15 +2900,15 @@
       </c>
       <c r="L7">
         <f t="shared" si="11"/>
-        <v>3745512</v>
+        <v>3728889</v>
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
-        <v>56.064546394292591</v>
+        <v>55.954953196167331</v>
       </c>
       <c r="N7">
         <f t="shared" si="9"/>
-        <v>402404</v>
+        <v>425433</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -2903,15 +2918,15 @@
       </c>
       <c r="Q7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.78457973250222646</v>
       </c>
       <c r="R7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.34556851039399072</v>
       </c>
       <c r="S7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>9.0923160867941305E-2</v>
       </c>
       <c r="T7">
         <f>(I7/H7)*10</f>
@@ -2919,7 +2934,7 @@
       </c>
       <c r="U7" s="3">
         <f>((I7+B7-O7+N12-N15)/(H7))*10</f>
-        <v>18.498127367441064</v>
+        <v>18.589050528309009</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -3043,7 +3058,7 @@
     </row>
     <row r="18" spans="14:21">
       <c r="N18">
-        <v>159619</v>
+        <v>176025</v>
       </c>
       <c r="P18">
         <f>H7+P12+((H7/10)*Q15)</f>
@@ -3072,7 +3087,7 @@
     <row r="21" spans="14:21">
       <c r="P21">
         <f>((I7+B7+P12-((H7/10)*P15))/P18)*10</f>
-        <v>11.516904038679161</v>
+        <v>11.603714266973967</v>
       </c>
     </row>
     <row r="23" spans="14:21">
@@ -3090,7 +3105,7 @@
       </c>
       <c r="P24">
         <f>N27/(I7+B7+N12+P12-N15+N21+N27)*100</f>
-        <v>42.457591051495719</v>
+        <v>42.34082655749048</v>
       </c>
     </row>
     <row r="26" spans="14:21">
@@ -3107,7 +3122,7 @@
       </c>
       <c r="P27">
         <f>(N27+N30)/(I7+B7+N12+P12-N15+N21+N27+N30)*100</f>
-        <v>42.457591051495719</v>
+        <v>42.34082655749048</v>
       </c>
     </row>
     <row r="29" spans="14:21">
@@ -3142,8 +3157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3594,22 +3609,22 @@
         <v>26</v>
       </c>
       <c r="B8">
-        <v>2611</v>
+        <v>3074</v>
       </c>
       <c r="C8">
         <v>411500</v>
       </c>
       <c r="D8">
         <f t="shared" si="2"/>
-        <v>2292609</v>
+        <v>2293072</v>
       </c>
       <c r="E8">
         <f>E7+G7+M7</f>
         <v>3022300</v>
       </c>
       <c r="F8">
-        <f>F7+B7+G7+H7-L7</f>
-        <v>4736842</v>
+        <f>F7+B7+G7+H7-H6-L7</f>
+        <v>4699342</v>
       </c>
       <c r="H8">
         <v>39000</v>
@@ -3619,11 +3634,11 @@
       </c>
       <c r="J8">
         <f t="shared" si="0"/>
-        <v>45.625651865376696</v>
+        <v>45.822902781841627</v>
       </c>
       <c r="K8">
         <f t="shared" si="5"/>
-        <v>1640653</v>
+        <v>1641116</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -3633,23 +3648,23 @@
       </c>
       <c r="N8">
         <f t="shared" si="6"/>
-        <v>5.5121112336024715E-2</v>
+        <v>6.5413413196996506E-2</v>
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>2.9971745517266873E-2</v>
+        <v>3.5439088461452439E-2</v>
       </c>
       <c r="P8">
         <f t="shared" si="7"/>
-        <v>8.639115905105384E-3</v>
+        <v>1.0171061774145519E-2</v>
       </c>
       <c r="Q8">
         <f>(F8/E8)*10</f>
-        <v>15.672970916189657</v>
+        <v>15.548893227012538</v>
       </c>
       <c r="R8" s="3">
         <f>((F8+B8-L8+K13-K16)/(E8))*10</f>
-        <v>13.43069516593323</v>
+        <v>13.308149422625153</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -3771,6 +3786,9 @@
       </c>
     </row>
     <row r="19" spans="11:18">
+      <c r="K19">
+        <v>1135555</v>
+      </c>
       <c r="M19">
         <f>E8+M13+((E8/10)*N16)</f>
         <v>3722300</v>
@@ -3811,7 +3829,7 @@
     <row r="22" spans="11:18">
       <c r="M22">
         <f>((F8+B8+M13-((E8/10)*M16))/M19)*10</f>
-        <v>14.613150471482685</v>
+        <v>14.513650162533917</v>
       </c>
     </row>
     <row r="24" spans="11:18">
@@ -3829,7 +3847,7 @@
       </c>
       <c r="M25">
         <f>K28/(F8+B8+K13+M13-K16+K22+K28)*100</f>
-        <v>40.319617336001365</v>
+        <v>40.507754831761737</v>
       </c>
     </row>
     <row r="27" spans="11:18">
@@ -3846,7 +3864,7 @@
       </c>
       <c r="M28">
         <f>(K28+K31)/(F8+B8+K13+M13-K16+K22+K28+K31)*100</f>
-        <v>43.840828583839041</v>
+        <v>44.033273859852599</v>
       </c>
     </row>
     <row r="30" spans="11:18">

--- a/交易紀錄/合併財務報表.xlsx
+++ b/交易紀錄/合併財務報表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="135" windowWidth="19395" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="135" windowWidth="19395" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="合併報表" sheetId="1" r:id="rId1"/>
@@ -210,11 +210,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>固定收益</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>債務</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定現金收益</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -468,7 +468,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>固定收益</c:v>
+                  <c:v>固定現金收益</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -531,24 +531,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="62180736"/>
-        <c:axId val="135701632"/>
+        <c:axId val="109838720"/>
+        <c:axId val="109840256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="62180736"/>
+        <c:axId val="109838720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135701632"/>
+        <c:crossAx val="109840256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="135701632"/>
+        <c:axId val="109840256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -556,7 +556,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62180736"/>
+        <c:crossAx val="109838720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -645,7 +645,7 @@
                   <c:v>102789</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23029</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -716,7 +716,7 @@
                   <c:v>402404</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>425433</c:v>
+                  <c:v>402404</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -784,31 +784,31 @@
                   <c:v>225060</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32400</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="137156864"/>
-        <c:axId val="137297920"/>
+        <c:axId val="109984768"/>
+        <c:axId val="109986560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="137156864"/>
+        <c:axId val="109984768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137297920"/>
+        <c:crossAx val="109986560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="137297920"/>
+        <c:axId val="109986560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -816,7 +816,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137156864"/>
+        <c:crossAx val="109984768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -914,7 +914,7 @@
                   <c:v>1892320</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3074</c:v>
+                  <c:v>41275</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -991,7 +991,7 @@
                   <c:v>2289998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2293072</c:v>
+                  <c:v>2331273</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1066,24 +1066,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="137340032"/>
-        <c:axId val="137341568"/>
+        <c:axId val="110045056"/>
+        <c:axId val="110046592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="137340032"/>
+        <c:axId val="110045056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137341568"/>
+        <c:crossAx val="110046592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="137341568"/>
+        <c:axId val="110046592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1091,14 +1091,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137340032"/>
+        <c:crossAx val="110045056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -1320,13 +1319,13 @@
             <v>2016</v>
           </cell>
           <cell r="B8">
-            <v>3074</v>
+            <v>41275</v>
           </cell>
           <cell r="C8">
             <v>411500</v>
           </cell>
           <cell r="D8">
-            <v>2293072</v>
+            <v>2331273</v>
           </cell>
         </row>
       </sheetData>
@@ -1345,7 +1344,7 @@
     <sheetNames>
       <sheetName val="銀行帳目"/>
       <sheetName val="交屋後明細"/>
-      <sheetName val="3號水電"/>
+      <sheetName val="水電預繳"/>
       <sheetName val="交屋前支出"/>
       <sheetName val="借款"/>
       <sheetName val="財務報表"/>
@@ -1438,13 +1437,13 @@
             <v>2016</v>
           </cell>
           <cell r="B7">
-            <v>23029</v>
+            <v>0</v>
           </cell>
           <cell r="C7">
-            <v>32400</v>
+            <v>0</v>
           </cell>
           <cell r="G7">
-            <v>425433</v>
+            <v>402404</v>
           </cell>
         </row>
       </sheetData>
@@ -1741,14 +1740,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="6.125" customWidth="1"/>
-    <col min="2" max="3" width="9.125" customWidth="1"/>
+    <col min="2" max="2" width="9.125" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
     <col min="6" max="6" width="12.625" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="8.875" customWidth="1"/>
@@ -1771,7 +1771,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -1789,7 +1789,7 @@
         <v>10</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>12</v>
@@ -2411,7 +2411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>

--- a/交易紀錄/合併財務報表.xlsx
+++ b/交易紀錄/合併財務報表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="135" windowWidth="19395" windowHeight="7620"/>
+    <workbookView xWindow="600" yWindow="135" windowWidth="19395" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="合併報表" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,137 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>dada</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>dada:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>購屋款項，篩選年度，項目選擇包含</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>租金或機車 (最後剔除押金)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>dada:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>篩選年度，項目去除房貸兩種跟押金</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>dada:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>篩選年度，項目選擇房貸</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="49">
   <si>
@@ -222,7 +353,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -245,6 +376,26 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="3">
@@ -364,19 +515,19 @@
                   <c:v>20086</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>127539</c:v>
+                  <c:v>133042</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>166315</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>353370</c:v>
+                  <c:v>352870</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1995109</c:v>
+                  <c:v>1996509</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26103</c:v>
+                  <c:v>166029</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -441,19 +592,19 @@
                   <c:v>50069</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>177608</c:v>
+                  <c:v>183111</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>343923</c:v>
+                  <c:v>349426</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>697293</c:v>
+                  <c:v>702296</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2692402</c:v>
+                  <c:v>2698805</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2718505</c:v>
+                  <c:v>2864834</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -524,31 +675,31 @@
                   <c:v>538729</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>443900</c:v>
+                  <c:v>678500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="109838720"/>
-        <c:axId val="109840256"/>
+        <c:axId val="115220864"/>
+        <c:axId val="123250176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="109838720"/>
+        <c:axId val="115220864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109840256"/>
+        <c:crossAx val="123250176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109840256"/>
+        <c:axId val="123250176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -556,14 +707,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109838720"/>
+        <c:crossAx val="115220864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -791,24 +941,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="109984768"/>
-        <c:axId val="109986560"/>
+        <c:axId val="123266176"/>
+        <c:axId val="123267712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="109984768"/>
+        <c:axId val="123266176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109986560"/>
+        <c:crossAx val="123267712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109986560"/>
+        <c:axId val="123267712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -816,7 +966,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109984768"/>
+        <c:crossAx val="123266176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -914,7 +1064,7 @@
                   <c:v>1892320</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41275</c:v>
+                  <c:v>395756</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -991,7 +1141,7 @@
                   <c:v>2289998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2331273</c:v>
+                  <c:v>2685754</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1059,31 +1209,31 @@
                   <c:v>313669</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>411500</c:v>
+                  <c:v>540982</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="110045056"/>
-        <c:axId val="110046592"/>
+        <c:axId val="133808128"/>
+        <c:axId val="133809664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="110045056"/>
+        <c:axId val="133808128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110046592"/>
+        <c:crossAx val="133809664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110046592"/>
+        <c:axId val="133809664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1091,7 +1241,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110045056"/>
+        <c:crossAx val="133808128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1224,6 +1374,7 @@
       <sheetName val="公司資金"/>
       <sheetName val="專案收入"/>
       <sheetName val="福利金"/>
+      <sheetName val="Sheet2"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -1319,13 +1470,13 @@
             <v>2016</v>
           </cell>
           <cell r="B8">
-            <v>41275</v>
+            <v>395756</v>
           </cell>
           <cell r="C8">
-            <v>411500</v>
+            <v>540982</v>
           </cell>
           <cell r="D8">
-            <v>2331273</v>
+            <v>2685754</v>
           </cell>
         </row>
       </sheetData>
@@ -1333,6 +1484,7 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1740,7 +1892,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -1941,7 +2093,7 @@
       </c>
       <c r="B4">
         <f>'達人351-15'!B3+股票期貨外匯!B4</f>
-        <v>127539</v>
+        <v>133042</v>
       </c>
       <c r="C4">
         <f>'達人351-15'!C3+股票期貨外匯!C4</f>
@@ -1949,7 +2101,7 @@
       </c>
       <c r="D4">
         <f t="shared" si="2"/>
-        <v>177608</v>
+        <v>183111</v>
       </c>
       <c r="E4">
         <f t="shared" ref="E4:E6" si="7">E3+G3+M3</f>
@@ -1973,7 +2125,7 @@
       </c>
       <c r="K4">
         <f t="shared" ref="K4:K8" si="9">K3+B4-L4-M4</f>
-        <v>171608</v>
+        <v>177111</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -1983,15 +2135,15 @@
       </c>
       <c r="N4">
         <f t="shared" si="3"/>
-        <v>5.9131601531295157</v>
+        <v>6.1682987407197567</v>
       </c>
       <c r="O4">
         <f t="shared" si="1"/>
-        <v>1.9673841129324976</v>
+        <v>2.0522719885898848</v>
       </c>
       <c r="P4">
         <f t="shared" si="4"/>
-        <v>0.60364975733600656</v>
+        <v>0.62969578729249076</v>
       </c>
       <c r="Q4">
         <f t="shared" si="5"/>
@@ -1999,7 +2151,7 @@
       </c>
       <c r="R4">
         <f t="shared" si="6"/>
-        <v>10.812230984694231</v>
+        <v>10.838277014650714</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2016,7 +2168,7 @@
       </c>
       <c r="D5">
         <f t="shared" si="2"/>
-        <v>343923</v>
+        <v>349426</v>
       </c>
       <c r="E5">
         <f t="shared" si="7"/>
@@ -2024,7 +2176,7 @@
       </c>
       <c r="F5">
         <f t="shared" si="8"/>
-        <v>2484406</v>
+        <v>2489909</v>
       </c>
       <c r="G5">
         <f>'達人351-15'!J4+股票期貨外匯!G5</f>
@@ -2036,11 +2188,11 @@
       </c>
       <c r="J5">
         <f t="shared" si="0"/>
-        <v>65.57572193608523</v>
+        <v>65.525758322579932</v>
       </c>
       <c r="K5">
         <f t="shared" si="9"/>
-        <v>337923</v>
+        <v>343426</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -2050,11 +2202,11 @@
       </c>
       <c r="N5">
         <f t="shared" si="3"/>
-        <v>6.6943567194733875</v>
+        <v>6.6795613815605313</v>
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
-        <v>2.3044839717018819</v>
+        <v>2.3027281336707963</v>
       </c>
       <c r="P5">
         <f t="shared" si="4"/>
@@ -2062,11 +2214,11 @@
       </c>
       <c r="Q5">
         <f t="shared" si="5"/>
-        <v>10.741993031816872</v>
+        <v>10.765786722402908</v>
       </c>
       <c r="R5">
         <f t="shared" si="6"/>
-        <v>11.461100364147669</v>
+        <v>11.484894054733703</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2075,7 +2227,7 @@
       </c>
       <c r="B6">
         <f>'達人351-15'!B5+股票期貨外匯!B6</f>
-        <v>353370</v>
+        <v>352870</v>
       </c>
       <c r="C6">
         <f>'達人351-15'!C5+股票期貨外匯!C6</f>
@@ -2083,7 +2235,7 @@
       </c>
       <c r="D6">
         <f t="shared" si="2"/>
-        <v>697293</v>
+        <v>702296</v>
       </c>
       <c r="E6">
         <f t="shared" si="7"/>
@@ -2091,7 +2243,7 @@
       </c>
       <c r="F6">
         <f t="shared" si="8"/>
-        <v>3330721</v>
+        <v>3336224</v>
       </c>
       <c r="G6">
         <f>'達人351-15'!J5+股票期貨外匯!G6</f>
@@ -2106,11 +2258,11 @@
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
-        <v>58.735383191591772</v>
+        <v>58.695366342301789</v>
       </c>
       <c r="K6">
         <f t="shared" si="9"/>
-        <v>551293</v>
+        <v>556296</v>
       </c>
       <c r="L6">
         <f>'達人351-15'!O5+股票期貨外匯!L6</f>
@@ -2122,23 +2274,23 @@
       </c>
       <c r="N6">
         <f t="shared" si="3"/>
-        <v>10.609414598220626</v>
+        <v>10.576927688308698</v>
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>4.3779342795710647</v>
+        <v>4.3687612338955555</v>
       </c>
       <c r="P6">
         <f t="shared" si="4"/>
-        <v>1.1807345500765503</v>
+        <v>1.1790638726703238</v>
       </c>
       <c r="Q6">
         <f t="shared" si="5"/>
-        <v>11.129120642288587</v>
+        <v>11.147508117821516</v>
       </c>
       <c r="R6">
         <f>((F6+B6-L6)/(E6))*10</f>
-        <v>12.309855192365138</v>
+        <v>12.326571990491841</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2147,7 +2299,7 @@
       </c>
       <c r="B7">
         <f>'達人351-15'!B6+股票期貨外匯!B7</f>
-        <v>1995109</v>
+        <v>1996509</v>
       </c>
       <c r="C7">
         <f>'達人351-15'!C6+股票期貨外匯!C7</f>
@@ -2155,7 +2307,7 @@
       </c>
       <c r="D7">
         <f t="shared" si="2"/>
-        <v>2692402</v>
+        <v>2698805</v>
       </c>
       <c r="E7">
         <f>E6+G6+M6</f>
@@ -2163,7 +2315,7 @@
       </c>
       <c r="F7">
         <f t="shared" si="8"/>
-        <v>4918091</v>
+        <v>4923094</v>
       </c>
       <c r="G7">
         <f>'達人351-15'!J6+股票期貨外匯!G7</f>
@@ -2178,11 +2330,11 @@
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
-        <v>61.293529315516516</v>
+        <v>61.269404656897372</v>
       </c>
       <c r="K7">
         <f t="shared" si="9"/>
-        <v>2040446</v>
+        <v>2046849</v>
       </c>
       <c r="L7">
         <f>'達人351-15'!O6+股票期貨外匯!L7</f>
@@ -2194,23 +2346,23 @@
       </c>
       <c r="N7">
         <f t="shared" si="3"/>
-        <v>40.566736158399678</v>
+        <v>40.553948390991515</v>
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>15.70195183880273</v>
+        <v>15.706785646965601</v>
       </c>
       <c r="P7">
         <f t="shared" si="4"/>
-        <v>4.6083891660957503</v>
+        <v>4.61162294672254</v>
       </c>
       <c r="Q7">
         <f t="shared" si="5"/>
-        <v>11.360019568992479</v>
+        <v>11.371575715046642</v>
       </c>
       <c r="R7">
         <f>((F7+B7-L7)/(E7))*10</f>
-        <v>15.685092594688561</v>
+        <v>15.699882521369515</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2219,15 +2371,15 @@
       </c>
       <c r="B8">
         <f>'達人351-15'!B7+股票期貨外匯!B8</f>
-        <v>26103</v>
+        <v>166029</v>
       </c>
       <c r="C8">
         <f>'達人351-15'!C7+股票期貨外匯!C8</f>
-        <v>443900</v>
+        <v>678500</v>
       </c>
       <c r="D8">
         <f t="shared" si="2"/>
-        <v>2718505</v>
+        <v>2864834</v>
       </c>
       <c r="E8">
         <f>E7+G7+M7</f>
@@ -2235,26 +2387,26 @@
       </c>
       <c r="F8">
         <f>F7+B7+G7+H7-L7</f>
-        <v>7672044</v>
+        <v>7678447</v>
       </c>
       <c r="G8">
         <f>'達人351-15'!J7+股票期貨外匯!G8</f>
-        <v>0</v>
+        <v>120000</v>
       </c>
       <c r="H8">
         <v>39000</v>
       </c>
       <c r="I8">
         <f>'達人351-15'!L7+股票期貨外匯!I8</f>
-        <v>7703585</v>
+        <v>7517514</v>
       </c>
       <c r="J8">
         <f t="shared" si="0"/>
-        <v>50.10256816160171</v>
+        <v>49.470474424092032</v>
       </c>
       <c r="K8">
         <f t="shared" si="9"/>
-        <v>2066549</v>
+        <v>2212878</v>
       </c>
       <c r="L8">
         <f>'達人351-15'!O7+股票期貨外匯!L8</f>
@@ -2266,23 +2418,23 @@
       </c>
       <c r="N8">
         <f t="shared" si="3"/>
-        <v>0.34023527498017475</v>
+        <v>2.1622731784174585</v>
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>0.1697686644234197</v>
+        <v>1.0925863787094479</v>
       </c>
       <c r="P8">
         <f t="shared" si="4"/>
-        <v>4.6989270036280194E-2</v>
+        <v>0.29887681549452416</v>
       </c>
       <c r="Q8">
         <f>(F8/E8)*10</f>
-        <v>13.810816658860023</v>
+        <v>13.822343008170153</v>
       </c>
       <c r="R8" s="3">
         <f>((F8+B8-L8+K13-K16)/(E8))*10</f>
-        <v>15.783435323733263</v>
+        <v>16.046849218501634</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2351,7 +2503,7 @@
     <row r="22" spans="11:13">
       <c r="M22">
         <f>((F8+B8+M13-((E8/10)*M16))/M19)*10</f>
-        <v>13.361593813930391</v>
+        <v>13.591125971710552</v>
       </c>
     </row>
     <row r="24" spans="11:13">
@@ -2369,7 +2521,7 @@
       </c>
       <c r="M25">
         <f>K28/(F8+B8+K13+M13-K16+K22+K28)*100</f>
-        <v>41.353736527071369</v>
+        <v>40.986881678788158</v>
       </c>
     </row>
     <row r="27" spans="11:13">
@@ -2387,7 +2539,7 @@
       </c>
       <c r="M28">
         <f>(K28+K31)/(F8+B8+K13+M13-K16+K22+K28+K31)*100</f>
-        <v>43.094124580076809</v>
+        <v>42.723077790303073</v>
       </c>
     </row>
     <row r="30" spans="11:13">
@@ -2411,8 +2563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2564,13 +2716,13 @@
       </c>
       <c r="B3">
         <f>D3-E3</f>
-        <v>145131</v>
+        <v>150634</v>
       </c>
       <c r="C3">
         <v>264733</v>
       </c>
       <c r="D3">
-        <v>214836</v>
+        <v>220339</v>
       </c>
       <c r="E3">
         <v>69705</v>
@@ -2580,7 +2732,7 @@
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G7" si="6">G2+B3</f>
-        <v>145131</v>
+        <v>150634</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H5" si="7">H2+J2+P2</f>
@@ -2606,7 +2758,7 @@
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N7" si="9">N2+B3-O3-P3</f>
-        <v>145131</v>
+        <v>150634</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -2616,15 +2768,15 @@
       </c>
       <c r="Q3">
         <f t="shared" si="1"/>
-        <v>7.0699114087211701</v>
+        <v>7.3379845459709143</v>
       </c>
       <c r="R3">
         <f t="shared" si="2"/>
-        <v>2.2752798419715927</v>
+        <v>2.3615526918132503</v>
       </c>
       <c r="S3">
         <f t="shared" si="3"/>
-        <v>0.70699114087211701</v>
+        <v>0.73379845459709148</v>
       </c>
       <c r="T3">
         <f t="shared" si="4"/>
@@ -2632,7 +2784,7 @@
       </c>
       <c r="U3">
         <f t="shared" si="5"/>
-        <v>10.706991140872118</v>
+        <v>10.733798454597093</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -2657,7 +2809,7 @@
       </c>
       <c r="G4">
         <f t="shared" si="6"/>
-        <v>274012</v>
+        <v>279515</v>
       </c>
       <c r="H4">
         <f t="shared" si="7"/>
@@ -2665,7 +2817,7 @@
       </c>
       <c r="I4">
         <f t="shared" si="8"/>
-        <v>2317929</v>
+        <v>2323432</v>
       </c>
       <c r="J4">
         <v>120000</v>
@@ -2679,11 +2831,11 @@
       </c>
       <c r="M4">
         <f t="shared" si="0"/>
-        <v>64.066124696537031</v>
+        <v>64.01151603234365</v>
       </c>
       <c r="N4">
         <f t="shared" si="9"/>
-        <v>274012</v>
+        <v>279515</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -2693,11 +2845,11 @@
       </c>
       <c r="Q4">
         <f t="shared" si="1"/>
-        <v>5.560178935592937</v>
+        <v>5.5470097683082615</v>
       </c>
       <c r="R4">
         <f t="shared" si="2"/>
-        <v>1.9979877653653801</v>
+        <v>1.9962847211519503</v>
       </c>
       <c r="S4">
         <f t="shared" si="3"/>
@@ -2705,11 +2857,11 @@
       </c>
       <c r="T4">
         <f t="shared" si="4"/>
-        <v>10.667945202453241</v>
+        <v>10.693271993070685</v>
       </c>
       <c r="U4">
         <f t="shared" si="5"/>
-        <v>11.261102044460644</v>
+        <v>11.286428835078087</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -2718,13 +2870,13 @@
       </c>
       <c r="B5">
         <f t="shared" si="10"/>
-        <v>25603</v>
+        <v>25103</v>
       </c>
       <c r="C5">
         <v>171550</v>
       </c>
       <c r="D5">
-        <v>106276</v>
+        <v>105776</v>
       </c>
       <c r="E5">
         <v>80673</v>
@@ -2734,7 +2886,7 @@
       </c>
       <c r="G5">
         <f t="shared" si="6"/>
-        <v>299615</v>
+        <v>304618</v>
       </c>
       <c r="H5">
         <f t="shared" si="7"/>
@@ -2742,7 +2894,7 @@
       </c>
       <c r="I5">
         <f t="shared" si="8"/>
-        <v>2566810</v>
+        <v>2572313</v>
       </c>
       <c r="J5">
         <v>120000</v>
@@ -2756,11 +2908,11 @@
       </c>
       <c r="M5">
         <f t="shared" si="0"/>
-        <v>60.55736401040982</v>
+        <v>60.506199173464012</v>
       </c>
       <c r="N5">
         <f t="shared" si="9"/>
-        <v>299615</v>
+        <v>304618</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -2770,23 +2922,23 @@
       </c>
       <c r="Q5">
         <f t="shared" si="1"/>
-        <v>0.99746377799681318</v>
+        <v>0.97589212510297152</v>
       </c>
       <c r="R5">
         <f t="shared" si="2"/>
-        <v>0.393426007083297</v>
+        <v>0.38541689217001701</v>
       </c>
       <c r="S5">
         <f t="shared" si="3"/>
-        <v>0.11166705483867309</v>
+        <v>0.10948631322951258</v>
       </c>
       <c r="T5">
         <f t="shared" si="4"/>
-        <v>11.195098739618579</v>
+        <v>11.219099981769</v>
       </c>
       <c r="U5">
         <f>((I5+B5-O5)/(H5))*10</f>
-        <v>11.306765794457252</v>
+        <v>11.328586294998512</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -2795,13 +2947,13 @@
       </c>
       <c r="B6">
         <f t="shared" si="10"/>
-        <v>102789</v>
+        <v>104189</v>
       </c>
       <c r="C6">
         <v>225060</v>
       </c>
       <c r="D6">
-        <v>180125</v>
+        <v>181525</v>
       </c>
       <c r="E6">
         <v>77336</v>
@@ -2811,7 +2963,7 @@
       </c>
       <c r="G6">
         <f t="shared" si="6"/>
-        <v>402404</v>
+        <v>408807</v>
       </c>
       <c r="H6">
         <f>H5+J5+P5</f>
@@ -2819,7 +2971,7 @@
       </c>
       <c r="I6">
         <f t="shared" si="8"/>
-        <v>2712413</v>
+        <v>2717416</v>
       </c>
       <c r="J6">
         <v>120000</v>
@@ -2833,11 +2985,11 @@
       </c>
       <c r="M6">
         <f t="shared" si="0"/>
-        <v>57.998691530174163</v>
+        <v>57.953794317374417</v>
       </c>
       <c r="N6">
         <f t="shared" si="9"/>
-        <v>402404</v>
+        <v>408807</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -2847,23 +2999,23 @@
       </c>
       <c r="Q6">
         <f t="shared" si="1"/>
-        <v>3.7895777671025761</v>
+        <v>3.8341203555142087</v>
       </c>
       <c r="R6">
         <f t="shared" si="2"/>
-        <v>1.591672247664691</v>
+        <v>1.6121021307989196</v>
       </c>
       <c r="S6">
         <f t="shared" si="3"/>
-        <v>0.42601577090166687</v>
+        <v>0.43181816297924647</v>
       </c>
       <c r="T6">
         <f t="shared" si="4"/>
-        <v>11.241774073088589</v>
+        <v>11.262509335634396</v>
       </c>
       <c r="U6">
         <f>((I6+B6-O6)/(H6))*10</f>
-        <v>11.667789843990255</v>
+        <v>11.694327498613644</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -2871,24 +3023,24 @@
         <v>26</v>
       </c>
       <c r="B7">
-        <f t="shared" si="10"/>
-        <v>23029</v>
+        <f>D7-E7</f>
+        <v>162955</v>
       </c>
       <c r="C7">
-        <v>32400</v>
+        <v>267000</v>
       </c>
       <c r="D7">
-        <v>29030</v>
+        <v>229009</v>
       </c>
       <c r="E7">
-        <v>6001</v>
+        <v>66054</v>
       </c>
       <c r="F7">
-        <v>22624</v>
+        <v>268748</v>
       </c>
       <c r="G7">
         <f t="shared" si="6"/>
-        <v>425433</v>
+        <v>571762</v>
       </c>
       <c r="H7">
         <f>H6+J6+P6</f>
@@ -2896,19 +3048,25 @@
       </c>
       <c r="I7">
         <f>I6+B6+J6+K6-O6</f>
-        <v>2935202</v>
+        <v>2941605</v>
+      </c>
+      <c r="J7">
+        <v>120000</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
       </c>
       <c r="L7">
         <f t="shared" si="11"/>
-        <v>3728889</v>
+        <v>3542818</v>
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
-        <v>55.954953196167331</v>
+        <v>54.635824960833055</v>
       </c>
       <c r="N7">
         <f t="shared" si="9"/>
-        <v>425433</v>
+        <v>571762</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -2918,23 +3076,23 @@
       </c>
       <c r="Q7">
         <f t="shared" si="1"/>
-        <v>0.78457973250222646</v>
+        <v>5.5396628711196776</v>
       </c>
       <c r="R7">
         <f t="shared" si="2"/>
-        <v>0.34556851039399072</v>
+        <v>2.5130223614344716</v>
       </c>
       <c r="S7">
         <f t="shared" si="3"/>
-        <v>9.0923160867941305E-2</v>
+        <v>0.64337937727367123</v>
       </c>
       <c r="T7">
         <f>(I7/H7)*10</f>
-        <v>11.588772574836208</v>
+        <v>11.614052916971664</v>
       </c>
       <c r="U7" s="3">
         <f>((I7+B7-O7+N12-N15)/(H7))*10</f>
-        <v>18.589050528309009</v>
+        <v>19.166787086850196</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -3087,7 +3245,7 @@
     <row r="21" spans="14:21">
       <c r="P21">
         <f>((I7+B7+P12-((H7/10)*P15))/P18)*10</f>
-        <v>11.603714266973967</v>
+        <v>12.155316763658597</v>
       </c>
     </row>
     <row r="23" spans="14:21">
@@ -3105,7 +3263,7 @@
       </c>
       <c r="P24">
         <f>N27/(I7+B7+N12+P12-N15+N21+N27)*100</f>
-        <v>42.34082655749048</v>
+        <v>41.61363894577417</v>
       </c>
     </row>
     <row r="26" spans="14:21">
@@ -3122,7 +3280,7 @@
       </c>
       <c r="P27">
         <f>(N27+N30)/(I7+B7+N12+P12-N15+N21+N27+N30)*100</f>
-        <v>42.34082655749048</v>
+        <v>41.61363894577417</v>
       </c>
     </row>
     <row r="29" spans="14:21">
@@ -3149,7 +3307,9 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/交易紀錄/合併財務報表.xlsx
+++ b/交易紀錄/合併財務報表.xlsx
@@ -682,24 +682,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="115220864"/>
-        <c:axId val="123250176"/>
+        <c:axId val="154570112"/>
+        <c:axId val="154588672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="115220864"/>
+        <c:axId val="154570112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123250176"/>
+        <c:crossAx val="154588672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="123250176"/>
+        <c:axId val="154588672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -707,7 +707,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115220864"/>
+        <c:crossAx val="154570112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -941,24 +941,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="123266176"/>
-        <c:axId val="123267712"/>
+        <c:axId val="104994304"/>
+        <c:axId val="104995840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="123266176"/>
+        <c:axId val="104994304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123267712"/>
+        <c:crossAx val="104995840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="123267712"/>
+        <c:axId val="104995840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -966,7 +966,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123266176"/>
+        <c:crossAx val="104994304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1216,24 +1216,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="133808128"/>
-        <c:axId val="133809664"/>
+        <c:axId val="105091456"/>
+        <c:axId val="105092992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="133808128"/>
+        <c:axId val="105091456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133809664"/>
+        <c:crossAx val="105092992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="133809664"/>
+        <c:axId val="105092992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1241,7 +1241,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133808128"/>
+        <c:crossAx val="105091456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2564,7 +2564,7 @@
   <dimension ref="A1:U32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2792,7 +2792,7 @@
         <v>23</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B7" si="10">D4-E4</f>
+        <f t="shared" ref="B4:B6" si="10">D4-E4</f>
         <v>128881</v>
       </c>
       <c r="C4">

--- a/交易紀錄/合併財務報表.xlsx
+++ b/交易紀錄/合併財務報表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="135" windowWidth="19395" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="135" windowWidth="19395" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="合併報表" sheetId="1" r:id="rId1"/>
@@ -19,139 +19,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>dada</author>
-  </authors>
-  <commentList>
-    <comment ref="C1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>dada:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="細明體"/>
-            <family val="3"/>
-            <charset val="136"/>
-          </rPr>
-          <t>購屋款項，篩選年度，項目選擇包含</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="細明體"/>
-            <family val="3"/>
-            <charset val="136"/>
-          </rPr>
-          <t>租金或機車 (最後剔除押金)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>dada:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="細明體"/>
-            <family val="3"/>
-            <charset val="136"/>
-          </rPr>
-          <t>篩選年度，項目去除房貸兩種跟押金</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>dada:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="細明體"/>
-            <family val="3"/>
-            <charset val="136"/>
-          </rPr>
-          <t>篩選年度，項目選擇房貸</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="81">
   <si>
     <t>年度</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -197,6 +66,138 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>負債比</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>累積未分配盈餘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>現金股利</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>股票股利</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>期初每股淨值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>期末每股淨值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2011</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未實現損益</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>年末預估現增</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未扣除費用成本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>年末現金股利</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>帳上現金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前剩餘債務</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前負債比</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>預估明年長期負債比</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2010</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>債務</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定現金收益</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>年度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>結算損益</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>累計盈餘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>期初股本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>期初股東權益</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>期末現金增資</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>資本公積</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>期末債務</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -245,10 +246,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2013</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2014</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -261,6 +258,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>2017</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>未實現損益</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -293,26 +294,42 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>目前剩餘債務</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>購入價</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>市價</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>期末資本公積</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>債務(最高)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2010</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>明年初預計股本</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>目前剩餘債務</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>預估明年初每股淨值</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>目前負債比</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>預估明年長期負債比</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>預估明年長期負債</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -325,27 +342,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>購入價</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>市價</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>債務(最高)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2010</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>債務</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>固定現金收益</t>
+    <t>2017</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -353,7 +350,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -376,26 +373,6 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
     </font>
   </fonts>
   <fills count="3">
@@ -475,9 +452,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[1]股票獲利曲線!$A$2:$A$8</c:f>
+              <c:f>[1]股票獲利曲線!$A$2:$A$9</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>2010</c:v>
                 </c:pt>
@@ -498,16 +475,19 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2017</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>合併報表!$B$2:$B$8</c:f>
+              <c:f>合併報表!$B$2:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>29983</c:v>
                 </c:pt>
@@ -515,19 +495,22 @@
                   <c:v>20086</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>133042</c:v>
+                  <c:v>127539</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>166315</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>352870</c:v>
+                  <c:v>353370</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1996509</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>166029</c:v>
+                  <c:v>559311</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1875046</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -552,9 +535,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[1]股票獲利曲線!$A$2:$A$8</c:f>
+              <c:f>[1]股票獲利曲線!$A$2:$A$9</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>2010</c:v>
                 </c:pt>
@@ -575,16 +558,19 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2017</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>合併報表!$D$2:$D$8</c:f>
+              <c:f>合併報表!$D$2:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>29983</c:v>
                 </c:pt>
@@ -592,19 +578,22 @@
                   <c:v>50069</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>183111</c:v>
+                  <c:v>177608</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>349426</c:v>
+                  <c:v>343923</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>702296</c:v>
+                  <c:v>697293</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2698805</c:v>
+                  <c:v>2693802</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2864834</c:v>
+                  <c:v>3253113</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5128159</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -629,9 +618,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[1]股票獲利曲線!$A$2:$A$8</c:f>
+              <c:f>[1]股票獲利曲線!$A$2:$A$9</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>2010</c:v>
                 </c:pt>
@@ -652,16 +641,19 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2017</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>合併報表!$C$2:$C$8</c:f>
+              <c:f>合併報表!$C$2:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="2">
                   <c:v>264733</c:v>
                 </c:pt>
@@ -675,31 +667,34 @@
                   <c:v>538729</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>678500</c:v>
+                  <c:v>807982</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="154570112"/>
-        <c:axId val="154588672"/>
+        <c:axId val="71200128"/>
+        <c:axId val="87025152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="154570112"/>
+        <c:axId val="71200128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154588672"/>
+        <c:crossAx val="87025152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="154588672"/>
+        <c:axId val="87025152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -707,13 +702,14 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154570112"/>
+        <c:crossAx val="71200128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -752,9 +748,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[2]財務報表!$A$2:$A$7</c:f>
+              <c:f>[2]財務報表!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2011</c:v>
                 </c:pt>
@@ -772,16 +768,19 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2017</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[2]財務報表!$B$2:$B$7</c:f>
+              <c:f>[2]財務報表!$B$2:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="1">
                   <c:v>145131</c:v>
                 </c:pt>
@@ -792,9 +791,12 @@
                   <c:v>25603</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>102789</c:v>
+                  <c:v>104189</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>163555</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -820,9 +822,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[2]財務報表!$A$2:$A$7</c:f>
+              <c:f>[2]財務報表!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2011</c:v>
                 </c:pt>
@@ -840,16 +842,19 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2017</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[2]財務報表!$G$2:$G$7</c:f>
+              <c:f>[2]財務報表!$G$2:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -863,10 +868,13 @@
                   <c:v>299615</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>402404</c:v>
+                  <c:v>403804</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>402404</c:v>
+                  <c:v>567359</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>567359</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -891,9 +899,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[2]財務報表!$A$2:$A$7</c:f>
+              <c:f>[2]財務報表!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2011</c:v>
                 </c:pt>
@@ -911,16 +919,19 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2017</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[2]財務報表!$C$2:$C$7</c:f>
+              <c:f>[2]財務報表!$C$2:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="1">
                   <c:v>264733</c:v>
                 </c:pt>
@@ -934,6 +945,9 @@
                   <c:v>225060</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>267000</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -941,39 +955,43 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="104994304"/>
-        <c:axId val="104995840"/>
+        <c:axId val="112603520"/>
+        <c:axId val="112605056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="104994304"/>
+        <c:axId val="112603520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104995840"/>
+        <c:crossAx val="112605056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104995840"/>
+        <c:axId val="112605056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104994304"/>
+        <c:crossAx val="112603520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -1012,9 +1030,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[1]股票獲利曲線!$A$2:$A$8</c:f>
+              <c:f>[1]股票獲利曲線!$A$2:$A$9</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>2010</c:v>
                 </c:pt>
@@ -1035,16 +1053,19 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2017</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]股票獲利曲線!$B$2:$B$8</c:f>
+              <c:f>[1]股票獲利曲線!$B$2:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>29983</c:v>
                 </c:pt>
@@ -1065,6 +1086,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>395756</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1875046</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1089,9 +1113,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[1]股票獲利曲線!$A$2:$A$8</c:f>
+              <c:f>[1]股票獲利曲線!$A$2:$A$9</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>2010</c:v>
                 </c:pt>
@@ -1112,16 +1136,19 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2017</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]股票獲利曲線!$D$2:$D$8</c:f>
+              <c:f>[1]股票獲利曲線!$D$2:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>29983</c:v>
                 </c:pt>
@@ -1142,6 +1169,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2685754</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4560800</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1166,9 +1196,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[1]股票獲利曲線!$A$2:$A$8</c:f>
+              <c:f>[1]股票獲利曲線!$A$2:$A$9</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>2010</c:v>
                 </c:pt>
@@ -1189,16 +1219,19 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2017</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]股票獲利曲線!$C$2:$C$8</c:f>
+              <c:f>[1]股票獲利曲線!$C$2:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="3">
                   <c:v>9561</c:v>
                 </c:pt>
@@ -1210,30 +1243,33 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>540982</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="105091456"/>
-        <c:axId val="105092992"/>
+        <c:axId val="137522560"/>
+        <c:axId val="137525504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="105091456"/>
+        <c:axId val="137522560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105092992"/>
+        <c:crossAx val="137525504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105092992"/>
+        <c:axId val="137525504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1241,13 +1277,14 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105091456"/>
+        <c:crossAx val="137522560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -1265,13 +1302,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>66676</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>190501</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1300,18 +1337,18 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>66676</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>190501</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="圖表 1"/>
+        <xdr:cNvPr id="3" name="圖表 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1335,18 +1372,18 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>66676</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>190501</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="圖表 1"/>
+        <xdr:cNvPr id="4" name="圖表 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1479,6 +1516,20 @@
             <v>2685754</v>
           </cell>
         </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>2017</v>
+          </cell>
+          <cell r="B9">
+            <v>1875046</v>
+          </cell>
+          <cell r="C9">
+            <v>0</v>
+          </cell>
+          <cell r="D9">
+            <v>4560800</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
@@ -1575,13 +1626,13 @@
             <v>2015</v>
           </cell>
           <cell r="B6">
-            <v>102789</v>
+            <v>104189</v>
           </cell>
           <cell r="C6">
             <v>225060</v>
           </cell>
           <cell r="G6">
-            <v>402404</v>
+            <v>403804</v>
           </cell>
         </row>
         <row r="7">
@@ -1589,13 +1640,27 @@
             <v>2016</v>
           </cell>
           <cell r="B7">
+            <v>163555</v>
+          </cell>
+          <cell r="C7">
+            <v>267000</v>
+          </cell>
+          <cell r="G7">
+            <v>567359</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>2017</v>
+          </cell>
+          <cell r="B8">
             <v>0</v>
           </cell>
-          <cell r="C7">
+          <cell r="C8">
             <v>0</v>
           </cell>
-          <cell r="G7">
-            <v>402404</v>
+          <cell r="G8">
+            <v>567359</v>
           </cell>
         </row>
       </sheetData>
@@ -1892,8 +1957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1923,7 +1988,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -1941,39 +2006,39 @@
         <v>10</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B2">
         <v>29983</v>
@@ -1991,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <f t="shared" ref="J2:J8" si="0">I2/(F2+I2)*100</f>
+        <f t="shared" ref="J2:J7" si="0">I2/(F2+I2)*100</f>
         <v>0</v>
       </c>
       <c r="K2">
@@ -2027,7 +2092,7 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3">
         <v>20086</v>
@@ -2089,11 +2154,11 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4">
         <f>'達人351-15'!B3+股票期貨外匯!B4</f>
-        <v>133042</v>
+        <v>127539</v>
       </c>
       <c r="C4">
         <f>'達人351-15'!C3+股票期貨外匯!C4</f>
@@ -2101,7 +2166,7 @@
       </c>
       <c r="D4">
         <f t="shared" si="2"/>
-        <v>183111</v>
+        <v>177608</v>
       </c>
       <c r="E4">
         <f t="shared" ref="E4:E6" si="7">E3+G3+M3</f>
@@ -2125,7 +2190,7 @@
       </c>
       <c r="K4">
         <f t="shared" ref="K4:K8" si="9">K3+B4-L4-M4</f>
-        <v>177111</v>
+        <v>171608</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -2135,15 +2200,15 @@
       </c>
       <c r="N4">
         <f t="shared" si="3"/>
-        <v>6.1682987407197567</v>
+        <v>5.9131601531295157</v>
       </c>
       <c r="O4">
         <f t="shared" si="1"/>
-        <v>2.0522719885898848</v>
+        <v>1.9673841129324976</v>
       </c>
       <c r="P4">
         <f t="shared" si="4"/>
-        <v>0.62969578729249076</v>
+        <v>0.60364975733600656</v>
       </c>
       <c r="Q4">
         <f t="shared" si="5"/>
@@ -2151,12 +2216,12 @@
       </c>
       <c r="R4">
         <f t="shared" si="6"/>
-        <v>10.838277014650714</v>
+        <v>10.812230984694231</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5">
         <f>'達人351-15'!B4+股票期貨外匯!B5</f>
@@ -2168,7 +2233,7 @@
       </c>
       <c r="D5">
         <f t="shared" si="2"/>
-        <v>349426</v>
+        <v>343923</v>
       </c>
       <c r="E5">
         <f t="shared" si="7"/>
@@ -2176,7 +2241,7 @@
       </c>
       <c r="F5">
         <f t="shared" si="8"/>
-        <v>2489909</v>
+        <v>2484406</v>
       </c>
       <c r="G5">
         <f>'達人351-15'!J4+股票期貨外匯!G5</f>
@@ -2188,11 +2253,11 @@
       </c>
       <c r="J5">
         <f t="shared" si="0"/>
-        <v>65.525758322579932</v>
+        <v>65.57572193608523</v>
       </c>
       <c r="K5">
         <f t="shared" si="9"/>
-        <v>343426</v>
+        <v>337923</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -2202,11 +2267,11 @@
       </c>
       <c r="N5">
         <f t="shared" si="3"/>
-        <v>6.6795613815605313</v>
+        <v>6.6943567194733875</v>
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
-        <v>2.3027281336707963</v>
+        <v>2.3044839717018819</v>
       </c>
       <c r="P5">
         <f t="shared" si="4"/>
@@ -2214,20 +2279,20 @@
       </c>
       <c r="Q5">
         <f t="shared" si="5"/>
-        <v>10.765786722402908</v>
+        <v>10.741993031816872</v>
       </c>
       <c r="R5">
         <f t="shared" si="6"/>
-        <v>11.484894054733703</v>
+        <v>11.461100364147669</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6">
         <f>'達人351-15'!B5+股票期貨外匯!B6</f>
-        <v>352870</v>
+        <v>353370</v>
       </c>
       <c r="C6">
         <f>'達人351-15'!C5+股票期貨外匯!C6</f>
@@ -2235,7 +2300,7 @@
       </c>
       <c r="D6">
         <f t="shared" si="2"/>
-        <v>702296</v>
+        <v>697293</v>
       </c>
       <c r="E6">
         <f t="shared" si="7"/>
@@ -2243,7 +2308,7 @@
       </c>
       <c r="F6">
         <f t="shared" si="8"/>
-        <v>3336224</v>
+        <v>3330721</v>
       </c>
       <c r="G6">
         <f>'達人351-15'!J5+股票期貨外匯!G6</f>
@@ -2258,11 +2323,11 @@
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
-        <v>58.695366342301789</v>
+        <v>58.735383191591772</v>
       </c>
       <c r="K6">
         <f t="shared" si="9"/>
-        <v>556296</v>
+        <v>551293</v>
       </c>
       <c r="L6">
         <f>'達人351-15'!O5+股票期貨外匯!L6</f>
@@ -2274,28 +2339,28 @@
       </c>
       <c r="N6">
         <f t="shared" si="3"/>
-        <v>10.576927688308698</v>
+        <v>10.609414598220626</v>
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>4.3687612338955555</v>
+        <v>4.3779342795710647</v>
       </c>
       <c r="P6">
         <f t="shared" si="4"/>
-        <v>1.1790638726703238</v>
+        <v>1.1807345500765503</v>
       </c>
       <c r="Q6">
         <f t="shared" si="5"/>
-        <v>11.147508117821516</v>
+        <v>11.129120642288587</v>
       </c>
       <c r="R6">
         <f>((F6+B6-L6)/(E6))*10</f>
-        <v>12.326571990491841</v>
+        <v>12.309855192365138</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7">
         <f>'達人351-15'!B6+股票期貨外匯!B7</f>
@@ -2307,7 +2372,7 @@
       </c>
       <c r="D7">
         <f t="shared" si="2"/>
-        <v>2698805</v>
+        <v>2693802</v>
       </c>
       <c r="E7">
         <f>E6+G6+M6</f>
@@ -2315,11 +2380,11 @@
       </c>
       <c r="F7">
         <f t="shared" si="8"/>
-        <v>4923094</v>
+        <v>4918091</v>
       </c>
       <c r="G7">
         <f>'達人351-15'!J6+股票期貨外匯!G7</f>
-        <v>842500</v>
+        <v>1524500</v>
       </c>
       <c r="H7">
         <v>39000</v>
@@ -2330,11 +2395,11 @@
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
-        <v>61.269404656897372</v>
+        <v>61.293529315516516</v>
       </c>
       <c r="K7">
         <f t="shared" si="9"/>
-        <v>2046849</v>
+        <v>2041846</v>
       </c>
       <c r="L7">
         <f>'達人351-15'!O6+股票期貨外匯!L7</f>
@@ -2346,11 +2411,11 @@
       </c>
       <c r="N7">
         <f t="shared" si="3"/>
-        <v>40.553948390991515</v>
+        <v>40.595202488119881</v>
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>15.706785646965601</v>
+        <v>15.712970150370834</v>
       </c>
       <c r="P7">
         <f t="shared" si="4"/>
@@ -2358,40 +2423,40 @@
       </c>
       <c r="Q7">
         <f t="shared" si="5"/>
-        <v>11.371575715046642</v>
+        <v>11.360019568992479</v>
       </c>
       <c r="R7">
         <f>((F7+B7-L7)/(E7))*10</f>
-        <v>15.699882521369515</v>
+        <v>15.688326375315352</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8">
         <f>'達人351-15'!B7+股票期貨外匯!B8</f>
-        <v>166029</v>
+        <v>559311</v>
       </c>
       <c r="C8">
         <f>'達人351-15'!C7+股票期貨外匯!C8</f>
-        <v>678500</v>
+        <v>807982</v>
       </c>
       <c r="D8">
         <f t="shared" si="2"/>
-        <v>2864834</v>
+        <v>3253113</v>
       </c>
       <c r="E8">
         <f>E7+G7+M7</f>
-        <v>5555098</v>
+        <v>6237098</v>
       </c>
       <c r="F8">
         <f>F7+B7+G7+H7-L7</f>
-        <v>7678447</v>
+        <v>8355444</v>
       </c>
       <c r="G8">
         <f>'達人351-15'!J7+股票期貨外匯!G8</f>
-        <v>120000</v>
+        <v>1447470</v>
       </c>
       <c r="H8">
         <v>39000</v>
@@ -2401,16 +2466,16 @@
         <v>7517514</v>
       </c>
       <c r="J8">
-        <f t="shared" si="0"/>
-        <v>49.470474424092032</v>
+        <f>I8/(F8+I8)*100</f>
+        <v>47.360510876422659</v>
       </c>
       <c r="K8">
         <f t="shared" si="9"/>
-        <v>2212878</v>
+        <v>2230727</v>
       </c>
       <c r="L8">
         <f>'達人351-15'!O7+股票期貨外匯!L8</f>
-        <v>0</v>
+        <v>370430</v>
       </c>
       <c r="M8">
         <f>'達人351-15'!P7+股票期貨外匯!M8</f>
@@ -2418,139 +2483,170 @@
       </c>
       <c r="N8">
         <f t="shared" si="3"/>
-        <v>2.1622731784174585</v>
+        <v>6.6939710205705412</v>
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>1.0925863787094479</v>
+        <v>3.5236721473086492</v>
       </c>
       <c r="P8">
         <f t="shared" si="4"/>
-        <v>0.29887681549452416</v>
+        <v>0.89674877643416862</v>
       </c>
       <c r="Q8">
         <f>(F8/E8)*10</f>
-        <v>13.822343008170153</v>
-      </c>
-      <c r="R8" s="3">
-        <f>((F8+B8-L8+K13-K16)/(E8))*10</f>
-        <v>16.046849218501634</v>
+        <v>13.396364783750393</v>
+      </c>
+      <c r="R8">
+        <f>((F8+B8-L8)/(E8))*10</f>
+        <v>13.699199531577024</v>
       </c>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="2"/>
-      <c r="R9" s="3"/>
+      <c r="A9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9">
+        <f>'達人351-15'!B8+股票期貨外匯!B9</f>
+        <v>1875046</v>
+      </c>
+      <c r="C9">
+        <f>'達人351-15'!C8+股票期貨外匯!C9</f>
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ref="D9" si="10">D8+B9</f>
+        <v>5128159</v>
+      </c>
+      <c r="E9">
+        <f>E8+G8+M8</f>
+        <v>7684568</v>
+      </c>
+      <c r="F9">
+        <f>F8+B8+G8+H8-L8</f>
+        <v>10030795</v>
+      </c>
+      <c r="G9">
+        <f>'達人351-15'!J8+股票期貨外匯!G9</f>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>39000</v>
+      </c>
+      <c r="I9">
+        <f>'達人351-15'!L8+股票期貨外匯!I9</f>
+        <v>6756994</v>
+      </c>
+      <c r="J9">
+        <f t="shared" ref="J9" si="11">I9/(F9+I9)*100</f>
+        <v>40.249457507477608</v>
+      </c>
+      <c r="K9">
+        <f t="shared" ref="K9" si="12">K8+B9-L9-M9</f>
+        <v>4105773</v>
+      </c>
+      <c r="L9">
+        <f>'達人351-15'!O8+股票期貨外匯!L9</f>
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f>'達人351-15'!P8+股票期貨外匯!M9</f>
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <f t="shared" ref="N9" si="13">(B9/F9)*100</f>
+        <v>18.692895229141858</v>
+      </c>
+      <c r="O9">
+        <f t="shared" ref="O9" si="14">(B9/(F9+I9))*100</f>
+        <v>11.169106306971097</v>
+      </c>
+      <c r="P9">
+        <f t="shared" ref="P9" si="15">(B9/E9)*10</f>
+        <v>2.4400148453367838</v>
+      </c>
+      <c r="Q9">
+        <f>(F9/E9)*10</f>
+        <v>13.053167074583762</v>
+      </c>
+      <c r="R9" s="3">
+        <f>((F9+B9-L9+K15-K18)/(E9))*10</f>
+        <v>15.493181919920547</v>
+      </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="2"/>
       <c r="R10" s="3"/>
     </row>
-    <row r="12" spans="1:18">
-      <c r="K12" s="1" t="s">
+    <row r="11" spans="1:18">
+      <c r="A11" s="2"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="K13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M12" s="1" t="s">
+    </row>
+    <row r="14" spans="1:18">
+      <c r="K14">
+        <f>'達人351-15'!N13+股票期貨外匯!K14</f>
+        <v>1180000</v>
+      </c>
+      <c r="M14">
+        <f>'達人351-15'!P13+股票期貨外匯!M14</f>
+        <v>2120000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="K16" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="K13">
-        <f>'達人351-15'!N12+股票期貨外匯!K13</f>
-        <v>1069706</v>
-      </c>
-      <c r="M13">
-        <f>'達人351-15'!P12+股票期貨外匯!M13</f>
-        <v>820000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="K15" s="1" t="s">
+      <c r="M16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="11:13">
+      <c r="K19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="11:13">
+      <c r="K20">
+        <f>'達人351-15'!N19+股票期貨外匯!K20</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="22" spans="11:13">
+      <c r="K22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="25" spans="11:13">
+      <c r="K25" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="M15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="11:13">
-      <c r="K18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="11:13">
-      <c r="K19">
-        <f>'達人351-15'!N18+股票期貨外匯!K19</f>
-        <v>1311580</v>
-      </c>
-      <c r="M19">
-        <f>E8+M13+((E8/10)*N16)</f>
-        <v>6375098</v>
-      </c>
-    </row>
-    <row r="21" spans="11:13">
-      <c r="K21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="11:13">
-      <c r="M22">
-        <f>((F8+B8+M13-((E8/10)*M16))/M19)*10</f>
-        <v>13.591125971710552</v>
-      </c>
-    </row>
-    <row r="24" spans="11:13">
-      <c r="K24" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="11:13">
-      <c r="K25">
-        <f>K22/(F8+B8+K13-K16+K22+K19)*100</f>
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <f>K28/(F8+B8+K13+M13-K16+K22+K28)*100</f>
-        <v>40.986881678788158</v>
-      </c>
-    </row>
-    <row r="27" spans="11:13">
-      <c r="K27" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>41</v>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="11:13">
+      <c r="K26">
+        <f>K23/(F8+B8+K14-K17+K23+K20)*100</f>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="11:13">
-      <c r="K28">
-        <f>'達人351-15'!N27+股票期貨外匯!K28</f>
-        <v>6760764</v>
-      </c>
-      <c r="M28">
-        <f>(K28+K31)/(F8+B8+K13+M13-K16+K22+K28+K31)*100</f>
-        <v>42.723077790303073</v>
-      </c>
-    </row>
-    <row r="30" spans="11:13">
-      <c r="K30" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="K28" s="1"/>
+      <c r="M28" s="1"/>
     </row>
     <row r="31" spans="11:13">
-      <c r="K31">
-        <v>500000</v>
-      </c>
+      <c r="K31" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2561,10 +2657,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U32"/>
+  <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2589,10 +2685,10 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -2607,54 +2703,54 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="2" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="G2">
         <f>B2</f>
@@ -2676,7 +2772,7 @@
         <v>4500000</v>
       </c>
       <c r="M2">
-        <f t="shared" ref="M2:M7" si="0">L2/(I2+L2)*100</f>
+        <f t="shared" ref="M2:M8" si="0">L2/(I2+L2)*100</f>
         <v>69.899676877093682</v>
       </c>
       <c r="N2">
@@ -2690,15 +2786,15 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <f t="shared" ref="Q2:Q7" si="1">(B2/I2)*100</f>
+        <f t="shared" ref="Q2:Q6" si="1">(B2/I2)*100</f>
         <v>0</v>
       </c>
       <c r="R2">
-        <f t="shared" ref="R2:R7" si="2">(B2/(I2+L2))*100</f>
+        <f t="shared" ref="R2:R6" si="2">(B2/(I2+L2))*100</f>
         <v>0</v>
       </c>
       <c r="S2">
-        <f t="shared" ref="S2:S7" si="3">(B2/H2)*10</f>
+        <f t="shared" ref="S2:S8" si="3">(B2/H2)*10</f>
         <v>0</v>
       </c>
       <c r="T2">
@@ -2712,17 +2808,17 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="2" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="B3">
         <f>D3-E3</f>
-        <v>150634</v>
+        <v>145131</v>
       </c>
       <c r="C3">
         <v>264733</v>
       </c>
       <c r="D3">
-        <v>220339</v>
+        <v>214836</v>
       </c>
       <c r="E3">
         <v>69705</v>
@@ -2731,15 +2827,15 @@
         <v>243903</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G7" si="6">G2+B3</f>
-        <v>150634</v>
+        <f t="shared" ref="G3:G8" si="6">G2+B3</f>
+        <v>145131</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H5" si="7">H2+J2+P2</f>
         <v>2052798</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I6" si="8">I2+B2+J2+K2-O2</f>
+        <f t="shared" ref="I3:I7" si="8">I2+B2+J2+K2-O2</f>
         <v>2052798</v>
       </c>
       <c r="J3">
@@ -2757,8 +2853,8 @@
         <v>67.817420750634938</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N7" si="9">N2+B3-O3-P3</f>
-        <v>150634</v>
+        <f t="shared" ref="N3:N8" si="9">N2+B3-O3-P3</f>
+        <v>145131</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -2768,15 +2864,15 @@
       </c>
       <c r="Q3">
         <f t="shared" si="1"/>
-        <v>7.3379845459709143</v>
+        <v>7.0699114087211701</v>
       </c>
       <c r="R3">
         <f t="shared" si="2"/>
-        <v>2.3615526918132503</v>
+        <v>2.2752798419715927</v>
       </c>
       <c r="S3">
         <f t="shared" si="3"/>
-        <v>0.73379845459709148</v>
+        <v>0.70699114087211701</v>
       </c>
       <c r="T3">
         <f t="shared" si="4"/>
@@ -2784,15 +2880,15 @@
       </c>
       <c r="U3">
         <f t="shared" si="5"/>
-        <v>10.733798454597093</v>
+        <v>10.706991140872118</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B6" si="10">D4-E4</f>
+        <f t="shared" ref="B4:B5" si="10">D4-E4</f>
         <v>128881</v>
       </c>
       <c r="C4">
@@ -2809,7 +2905,7 @@
       </c>
       <c r="G4">
         <f t="shared" si="6"/>
-        <v>279515</v>
+        <v>274012</v>
       </c>
       <c r="H4">
         <f t="shared" si="7"/>
@@ -2817,7 +2913,7 @@
       </c>
       <c r="I4">
         <f t="shared" si="8"/>
-        <v>2323432</v>
+        <v>2317929</v>
       </c>
       <c r="J4">
         <v>120000</v>
@@ -2826,16 +2922,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:L7" si="11">L3-F4+E4</f>
+        <f t="shared" ref="L4:L6" si="11">L3-F4+E4</f>
         <v>4132611</v>
       </c>
       <c r="M4">
         <f t="shared" si="0"/>
-        <v>64.01151603234365</v>
+        <v>64.066124696537031</v>
       </c>
       <c r="N4">
         <f t="shared" si="9"/>
-        <v>279515</v>
+        <v>274012</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -2845,11 +2941,11 @@
       </c>
       <c r="Q4">
         <f t="shared" si="1"/>
-        <v>5.5470097683082615</v>
+        <v>5.560178935592937</v>
       </c>
       <c r="R4">
         <f t="shared" si="2"/>
-        <v>1.9962847211519503</v>
+        <v>1.9979877653653801</v>
       </c>
       <c r="S4">
         <f t="shared" si="3"/>
@@ -2857,26 +2953,26 @@
       </c>
       <c r="T4">
         <f t="shared" si="4"/>
-        <v>10.693271993070685</v>
+        <v>10.667945202453241</v>
       </c>
       <c r="U4">
         <f t="shared" si="5"/>
-        <v>11.286428835078087</v>
+        <v>11.261102044460644</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="2" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="B5">
         <f t="shared" si="10"/>
-        <v>25103</v>
+        <v>25603</v>
       </c>
       <c r="C5">
         <v>171550</v>
       </c>
       <c r="D5">
-        <v>105776</v>
+        <v>106276</v>
       </c>
       <c r="E5">
         <v>80673</v>
@@ -2886,7 +2982,7 @@
       </c>
       <c r="G5">
         <f t="shared" si="6"/>
-        <v>304618</v>
+        <v>299615</v>
       </c>
       <c r="H5">
         <f t="shared" si="7"/>
@@ -2894,7 +2990,7 @@
       </c>
       <c r="I5">
         <f t="shared" si="8"/>
-        <v>2572313</v>
+        <v>2566810</v>
       </c>
       <c r="J5">
         <v>120000</v>
@@ -2903,16 +2999,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <f t="shared" si="11"/>
+        <f>L4-F5+E5</f>
         <v>3940894</v>
       </c>
       <c r="M5">
         <f t="shared" si="0"/>
-        <v>60.506199173464012</v>
+        <v>60.55736401040982</v>
       </c>
       <c r="N5">
         <f t="shared" si="9"/>
-        <v>304618</v>
+        <v>299615</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -2922,31 +3018,31 @@
       </c>
       <c r="Q5">
         <f t="shared" si="1"/>
-        <v>0.97589212510297152</v>
+        <v>0.99746377799681318</v>
       </c>
       <c r="R5">
         <f t="shared" si="2"/>
-        <v>0.38541689217001701</v>
+        <v>0.393426007083297</v>
       </c>
       <c r="S5">
         <f t="shared" si="3"/>
-        <v>0.10948631322951258</v>
+        <v>0.11166705483867309</v>
       </c>
       <c r="T5">
         <f t="shared" si="4"/>
-        <v>11.219099981769</v>
+        <v>11.195098739618579</v>
       </c>
       <c r="U5">
         <f>((I5+B5-O5)/(H5))*10</f>
-        <v>11.328586294998512</v>
+        <v>11.306765794457252</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="2" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="B6">
-        <f t="shared" si="10"/>
+        <f>D6-E6</f>
         <v>104189</v>
       </c>
       <c r="C6">
@@ -2963,7 +3059,7 @@
       </c>
       <c r="G6">
         <f t="shared" si="6"/>
-        <v>408807</v>
+        <v>403804</v>
       </c>
       <c r="H6">
         <f>H5+J5+P5</f>
@@ -2971,7 +3067,7 @@
       </c>
       <c r="I6">
         <f t="shared" si="8"/>
-        <v>2717416</v>
+        <v>2712413</v>
       </c>
       <c r="J6">
         <v>120000</v>
@@ -2985,11 +3081,11 @@
       </c>
       <c r="M6">
         <f t="shared" si="0"/>
-        <v>57.953794317374417</v>
+        <v>57.998691530174163</v>
       </c>
       <c r="N6">
         <f t="shared" si="9"/>
-        <v>408807</v>
+        <v>403804</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -2999,11 +3095,11 @@
       </c>
       <c r="Q6">
         <f t="shared" si="1"/>
-        <v>3.8341203555142087</v>
+        <v>3.841192325799943</v>
       </c>
       <c r="R6">
         <f t="shared" si="2"/>
-        <v>1.6121021307989196</v>
+        <v>1.6133510376785114</v>
       </c>
       <c r="S6">
         <f t="shared" si="3"/>
@@ -3011,26 +3107,26 @@
       </c>
       <c r="T6">
         <f t="shared" si="4"/>
-        <v>11.262509335634396</v>
+        <v>11.241774073088589</v>
       </c>
       <c r="U6">
         <f>((I6+B6-O6)/(H6))*10</f>
-        <v>11.694327498613644</v>
+        <v>11.673592236067837</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="2" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="B7">
         <f>D7-E7</f>
-        <v>162955</v>
+        <v>163555</v>
       </c>
       <c r="C7">
         <v>267000</v>
       </c>
       <c r="D7">
-        <v>229009</v>
+        <v>229609</v>
       </c>
       <c r="E7">
         <v>66054</v>
@@ -3040,15 +3136,15 @@
       </c>
       <c r="G7">
         <f t="shared" si="6"/>
-        <v>571762</v>
+        <v>567359</v>
       </c>
       <c r="H7">
         <f>H6+J6+P6</f>
         <v>2532798</v>
       </c>
       <c r="I7">
-        <f>I6+B6+J6+K6-O6</f>
-        <v>2941605</v>
+        <f t="shared" si="8"/>
+        <v>2936602</v>
       </c>
       <c r="J7">
         <v>120000</v>
@@ -3057,16 +3153,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <f t="shared" si="11"/>
+        <f>L6-F7+E7</f>
         <v>3542818</v>
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
-        <v>54.635824960833055</v>
+        <v>54.678011303480865</v>
       </c>
       <c r="N7">
         <f t="shared" si="9"/>
-        <v>571762</v>
+        <v>567359</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -3075,232 +3171,240 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="1"/>
-        <v>5.5396628711196776</v>
+        <f>(B7/I7)*100</f>
+        <v>5.5695324051403627</v>
       </c>
       <c r="R7">
-        <f t="shared" si="2"/>
-        <v>2.5130223614344716</v>
+        <f>(B7/(I7+L7))*100</f>
+        <v>2.5242228471066852</v>
       </c>
       <c r="S7">
         <f t="shared" si="3"/>
-        <v>0.64337937727367123</v>
+        <v>0.64574829891685004</v>
       </c>
       <c r="T7">
         <f>(I7/H7)*10</f>
-        <v>11.614052916971664</v>
-      </c>
-      <c r="U7" s="3">
-        <f>((I7+B7-O7+N12-N15)/(H7))*10</f>
-        <v>19.166787086850196</v>
+        <v>11.594300058670292</v>
+      </c>
+      <c r="U7">
+        <f>((I7+B7-O7)/(H7))*10</f>
+        <v>12.240048357587144</v>
       </c>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="2"/>
-      <c r="U8" s="3"/>
+      <c r="A8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ref="B8" si="12">D8-E8</f>
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="6"/>
+        <v>567359</v>
+      </c>
+      <c r="H8">
+        <f>H7+J7+P7</f>
+        <v>2652798</v>
+      </c>
+      <c r="I8">
+        <f>I7+B7+J7+K7-O7</f>
+        <v>3220157</v>
+      </c>
+      <c r="L8">
+        <f t="shared" ref="L8" si="13">L7-F8+E8</f>
+        <v>3542818</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>52.385496028005427</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="9"/>
+        <v>567359</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" ref="Q8" si="14">(B8/I8)*100</f>
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <f t="shared" ref="R8" si="15">(B8/(I8+L8))*100</f>
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <f>(I8/H8)*10</f>
+        <v>12.138719193847402</v>
+      </c>
+      <c r="U8" s="3">
+        <f>((I8+B8-O8+N13-N16)/(H8))*10</f>
+        <v>18.73552754487903</v>
+      </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="2"/>
       <c r="U9" s="3"/>
     </row>
-    <row r="11" spans="1:21">
-      <c r="N11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
+    <row r="10" spans="1:21">
+      <c r="A10" s="2"/>
+      <c r="U10" s="3"/>
     </row>
     <row r="12" spans="1:21">
-      <c r="N12">
-        <f>P32-N32</f>
+      <c r="N12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="N13">
+        <f>P26-N26</f>
         <v>1750000</v>
       </c>
-      <c r="P12">
+      <c r="P13">
         <v>120000</v>
       </c>
-      <c r="S12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21">
-      <c r="S13">
+      <c r="S13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="S14">
         <v>2011</v>
       </c>
-      <c r="T13">
-        <f t="shared" ref="T13:T18" si="12">O2/(H2/10)</f>
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <f t="shared" ref="U13:U18" si="13">P2/(H2/10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21">
-      <c r="N14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S14">
+      <c r="T14">
+        <f t="shared" ref="T14:T19" si="16">O2/(H2/10)</f>
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <f t="shared" ref="U14:U19" si="17">P2/(H2/10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="N15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S15">
         <v>2012</v>
       </c>
-      <c r="T14">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21">
-      <c r="S15">
-        <v>2013</v>
-      </c>
       <c r="T15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:21">
       <c r="S16">
+        <v>2013</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="14:21">
+      <c r="S17">
         <v>2014</v>
       </c>
-      <c r="T16">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="14:21">
-      <c r="N17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S17">
+      <c r="T17">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="14:21">
+      <c r="N18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P18" s="1"/>
+      <c r="S18">
         <v>2015</v>
       </c>
-      <c r="T17">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="14:21">
-      <c r="N18">
-        <v>176025</v>
-      </c>
-      <c r="P18">
-        <f>H7+P12+((H7/10)*Q15)</f>
-        <v>2652798</v>
-      </c>
-      <c r="S18">
+      <c r="T18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="14:21">
+      <c r="N19">
+        <v>50000</v>
+      </c>
+      <c r="S19">
         <v>2016</v>
       </c>
-      <c r="T18">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="14:21">
-      <c r="N20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>37</v>
+      <c r="T19">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="14:21">
-      <c r="P21">
-        <f>((I7+B7+P12-((H7/10)*P15))/P18)*10</f>
-        <v>12.155316763658597</v>
-      </c>
-    </row>
-    <row r="23" spans="14:21">
-      <c r="N23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="14:21">
-      <c r="N24">
-        <f>N21/(I7+B7+N12-N15+N21+N18)*100</f>
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <f>N27/(I7+B7+N12+P12-N15+N21+N27)*100</f>
-        <v>41.61363894577417</v>
+      <c r="N21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="25" spans="14:21">
+      <c r="N25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="14:21">
-      <c r="N26" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="14:21">
-      <c r="N27">
-        <v>3545512</v>
-      </c>
-      <c r="P27">
-        <f>(N27+N30)/(I7+B7+N12+P12-N15+N21+N27+N30)*100</f>
-        <v>41.61363894577417</v>
-      </c>
-    </row>
-    <row r="29" spans="14:21">
-      <c r="N29" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="14:21">
-      <c r="N31" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P31" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="14:21">
-      <c r="N32">
+      <c r="N26">
         <v>6250000</v>
       </c>
-      <c r="P32">
+      <c r="P26">
         <v>8000000</v>
       </c>
     </row>
@@ -3309,7 +3413,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -3317,17 +3420,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="6.125" customWidth="1"/>
+    <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="3" width="9.125" customWidth="1"/>
     <col min="6" max="6" width="12.625" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="8.875" customWidth="1"/>
+    <col min="8" max="8" width="12.75" customWidth="1"/>
     <col min="9" max="9" width="10.625" customWidth="1"/>
     <col min="11" max="11" width="15.5" customWidth="1"/>
     <col min="12" max="12" width="9.625" customWidth="1"/>
@@ -3341,63 +3444,63 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="2" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="B2">
         <v>29983</v>
@@ -3433,7 +3536,7 @@
         <v>149.91499999999999</v>
       </c>
       <c r="O2">
-        <f t="shared" ref="O2:O8" si="1">(B2/(F2+I2))*100</f>
+        <f t="shared" ref="O2:O9" si="1">(B2/(F2+I2))*100</f>
         <v>149.91499999999999</v>
       </c>
       <c r="P2">
@@ -3451,7 +3554,7 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="2" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="B3">
         <v>20086</v>
@@ -3465,7 +3568,7 @@
         <v>20000</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F7" si="4">F2+B2+G2+H2-L2</f>
+        <f t="shared" ref="F3:F6" si="4">F2+B2+G2+H2-L2</f>
         <v>43983</v>
       </c>
       <c r="G3">
@@ -3479,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K8" si="5">K2+B3-L3-M3</f>
+        <f t="shared" ref="K3:K9" si="5">K2+B3-L3-M3</f>
         <v>44069</v>
       </c>
       <c r="L3">
@@ -3489,7 +3592,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N8" si="6">(B3/F3)*100</f>
+        <f t="shared" ref="N3:N9" si="6">(B3/F3)*100</f>
         <v>45.667644317122523</v>
       </c>
       <c r="O3">
@@ -3511,7 +3614,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="B4">
         <v>-17592</v>
@@ -3571,7 +3674,7 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5">
         <v>37434</v>
@@ -3634,7 +3737,7 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="B6">
         <v>327767</v>
@@ -3700,7 +3803,7 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="2" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="B7">
         <v>1892320</v>
@@ -3717,14 +3820,14 @@
         <v>1916500</v>
       </c>
       <c r="F7">
-        <f t="shared" si="4"/>
+        <f>F6+B6+G6+H6-L6</f>
         <v>2205678</v>
       </c>
       <c r="G7">
-        <v>722500</v>
+        <v>1404500</v>
       </c>
       <c r="H7">
-        <v>39000</v>
+        <v>189000</v>
       </c>
       <c r="I7">
         <v>4042518</v>
@@ -3766,143 +3869,199 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="2" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="B8">
-        <v>3074</v>
+        <v>395756</v>
       </c>
       <c r="C8">
-        <v>411500</v>
+        <v>540982</v>
       </c>
       <c r="D8">
         <f t="shared" si="2"/>
-        <v>2293072</v>
+        <v>2685754</v>
       </c>
       <c r="E8">
         <f>E7+G7+M7</f>
-        <v>3022300</v>
+        <v>3704300</v>
       </c>
       <c r="F8">
         <f>F7+B7+G7+H7-H6-L7</f>
-        <v>4699342</v>
+        <v>5531342</v>
+      </c>
+      <c r="G8">
+        <v>1327470</v>
       </c>
       <c r="H8">
-        <v>39000</v>
+        <v>226282</v>
       </c>
       <c r="I8">
         <v>3974696</v>
       </c>
       <c r="J8">
         <f t="shared" si="0"/>
-        <v>45.822902781841627</v>
+        <v>41.812330226325628</v>
       </c>
       <c r="K8">
-        <f t="shared" si="5"/>
-        <v>1641116</v>
+        <f>K7+B8-L8-M8</f>
+        <v>1663368</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>370430</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
         <f t="shared" si="6"/>
-        <v>6.5413413196996506E-2</v>
+        <v>7.154791730469749</v>
       </c>
       <c r="O8">
-        <f t="shared" si="1"/>
-        <v>3.5439088461452439E-2</v>
+        <f>(B8/(F8+I8))*100</f>
+        <v>4.1632065851198998</v>
       </c>
       <c r="P8">
         <f t="shared" si="7"/>
-        <v>1.0171061774145519E-2</v>
+        <v>1.0683691925599978</v>
       </c>
       <c r="Q8">
         <f>(F8/E8)*10</f>
-        <v>15.548893227012538</v>
-      </c>
-      <c r="R8" s="3">
-        <f>((F8+B8-L8+K13-K16)/(E8))*10</f>
-        <v>13.308149422625153</v>
+        <v>14.932219312690657</v>
+      </c>
+      <c r="R8">
+        <f>((F8+B8-L8)/(E8))*10</f>
+        <v>15.000588505250654</v>
       </c>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="2"/>
-      <c r="R9" s="3"/>
+      <c r="A9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9">
+        <v>1875046</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f>D8+B9</f>
+        <v>4560800</v>
+      </c>
+      <c r="E9">
+        <f>E8+G8+M8</f>
+        <v>5031770</v>
+      </c>
+      <c r="F9">
+        <f>F8+B8+G8+H8-H7-L8</f>
+        <v>6921420</v>
+      </c>
+      <c r="H9">
+        <v>226282</v>
+      </c>
+      <c r="I9">
+        <v>3214176</v>
+      </c>
+      <c r="J9">
+        <f>I9/(F9+I9)*100</f>
+        <v>31.711761202794587</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="5"/>
+        <v>3538414</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="6"/>
+        <v>27.09048143300074</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="1"/>
+        <v>18.499612652280142</v>
+      </c>
+      <c r="P9">
+        <f>(B9/E9)*10</f>
+        <v>3.7264143631366298</v>
+      </c>
+      <c r="Q9">
+        <f>(F9/E9)*10</f>
+        <v>13.755437947282964</v>
+      </c>
+      <c r="R9" s="3">
+        <f>((F9+B9-L9+K14-K17)/(E9))*10</f>
+        <v>16.34905013543942</v>
+      </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="2"/>
       <c r="R10" s="3"/>
     </row>
-    <row r="12" spans="1:18">
-      <c r="K12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
+    <row r="11" spans="1:18">
+      <c r="A11" s="2"/>
+      <c r="R11" s="3"/>
     </row>
     <row r="13" spans="1:18">
-      <c r="K13">
-        <v>-680294</v>
-      </c>
-      <c r="M13">
-        <v>700000</v>
+      <c r="K13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>31</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
     </row>
     <row r="14" spans="1:18">
-      <c r="P14">
+      <c r="K14">
+        <v>-570000</v>
+      </c>
+      <c r="M14">
+        <v>2000000</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="K15" t="s">
+        <v>74</v>
+      </c>
+      <c r="P15">
         <v>2010</v>
       </c>
-      <c r="Q14">
-        <f t="shared" ref="Q14:Q20" si="10">L2/(E2/10)</f>
+      <c r="Q15">
+        <f t="shared" ref="Q15:Q20" si="10">L2/(E2/10)</f>
         <v>3</v>
       </c>
-      <c r="R14">
-        <f t="shared" ref="R14:R20" si="11">M2/(E2/10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="K15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P15">
+      <c r="R15">
+        <f t="shared" ref="R15:R21" si="11">M2/(E2/10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="K16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P16">
         <v>2011</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="P16">
-        <v>2012</v>
       </c>
       <c r="Q16">
         <f t="shared" si="10"/>
@@ -3915,7 +4074,7 @@
     </row>
     <row r="17" spans="11:18">
       <c r="P17">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="Q17">
         <f t="shared" si="10"/>
@@ -3927,14 +4086,8 @@
       </c>
     </row>
     <row r="18" spans="11:18">
-      <c r="K18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="P18">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="Q18">
         <f t="shared" si="10"/>
@@ -3942,23 +4095,22 @@
       </c>
       <c r="R18">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="11:18">
-      <c r="K19">
-        <v>1135555</v>
-      </c>
-      <c r="M19">
-        <f>E8+M13+((E8/10)*N16)</f>
-        <v>3722300</v>
+      <c r="K19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="P19">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="Q19">
         <f t="shared" si="10"/>
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="R19">
         <f t="shared" si="11"/>
@@ -3966,75 +4118,76 @@
       </c>
     </row>
     <row r="20" spans="11:18">
+      <c r="K20">
+        <v>0</v>
+      </c>
       <c r="P20">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="Q20">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="R20">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="11:18">
-      <c r="K21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>37</v>
+      <c r="P21">
+        <v>2016</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="11:18">
-      <c r="M22">
-        <f>((F8+B8+M13-((E8/10)*M16))/M19)*10</f>
-        <v>14.513650162533917</v>
-      </c>
-    </row>
-    <row r="24" spans="11:18">
-      <c r="K24" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>39</v>
+      <c r="K22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="11:18">
-      <c r="K25">
-        <f>K22/(F8+B8+K13-K16+K22+K19)*100</f>
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <f>K28/(F8+B8+K13+M13-K16+K22+K28)*100</f>
-        <v>40.507754831761737</v>
-      </c>
-    </row>
-    <row r="27" spans="11:18">
-      <c r="K27" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>41</v>
+      <c r="K25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="11:18">
+      <c r="K26">
+        <f>K23/(F8+B8+K14-K17+K23+K20)*100</f>
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <f>K29/(F9+B9+K14+M14-K17+K23+K29)*100</f>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="11:18">
-      <c r="K28">
-        <v>3215252</v>
-      </c>
-      <c r="M28">
-        <f>(K28+K31)/(F8+B8+K13+M13-K16+K22+K28+K31)*100</f>
-        <v>44.033273859852599</v>
-      </c>
-    </row>
-    <row r="30" spans="11:18">
-      <c r="K30" s="1" t="s">
-        <v>42</v>
+      <c r="K28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="11:18">
+      <c r="M29">
+        <f>(K29+K32)/(F8+B8+K14+M14-K17+K23+K29+K32)*100</f>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="11:18">
-      <c r="K31">
-        <v>500000</v>
+      <c r="K31" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
